--- a/Document/시스템 기획서/DreamCatcher_튜토리얼_강동민.xlsx
+++ b/Document/시스템 기획서/DreamCatcher_튜토리얼_강동민.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
   <si>
     <t>작성자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -99,19 +99,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 조작키는 W, A, S, D, Space 로 이동과 대쉬 테스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 스킬은 1, 2, 3 버튼으로 스킬 3개를 사용하게 하여 스킬작동</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> - 미션은 섬멸, 구슬받기, 방어 간략화 시킨 미션을 빠르게 진행 설명함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>섬멸: 몬스터 2마리 상대</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -139,7 +131,155 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">4. 진행 </t>
+    <t xml:space="preserve"> - 조작키는 W, A, S, D, Space, 일반공격 로 이동과 대쉬 테스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬멸: 몬스터 2마리 상대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미션 중간에 스킬사용 파트에선 사용하기전 시간을 멈춤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 튜토리얼 스테이지 입장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 조작키 관련 튜토리얼 시작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 진행 [예시]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 눌러야 하는 키 표시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 조작키 관련 튜토리얼 진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 눌러준 키 활성화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 스킬1 사용 튜토리얼 시작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 사용해야할 스킬 강조 다른 버튼 잠금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 몬스터 소환2기 소환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 스킬1 사용 튜토리얼 진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬 사용 튜토리얼시 자동으로 특정 지점으로 이동, 시간정지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬 사용시 다시 시간 진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬사용 장면을 보여준 후 다음 튜토리얼로 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 스킬2 사용 튜토리얼 시작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 스킬2 사용 튜토리얼 진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 스킬3 사용 튜토리얼 시작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 스킬3 사용 튜토리얼 진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킵이 가능한 포탈 생성 후 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 시간이 지나면 튜토리얼 진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 튜토리얼 스테이지 진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 알림 창과 함께 다음 튜토리얼 진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 튜토리얼 중 스킵 포탈은 항시 대기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 섬멸 튜토리얼 시작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 버튼 장금 해제후 몬스터 2마리 소환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 왼쪽에 미션 진행판 표시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미션 완료시 다음 튜토리얼로 진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 방어 튜토리얼 시작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 방어 튜토리얼 진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 섬멸 튜토리얼 진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. 구슬 받기 튜토리얼 시작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. 구슬 받기 튜토리얼 진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미션 완료시 튜토리얼 종료 미션 선택창 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9. 튜토리얼 완료시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 알림창을 뛰워 곧 미션 선택창이 나온다고 알림</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미션 선택창 에서 선택하여 게임 진행</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -299,6 +439,5602 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>206627</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="542926" y="6638925"/>
+          <a:ext cx="8572500" cy="4797677"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>130428</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="542926" y="12220575"/>
+          <a:ext cx="8572500" cy="4797677"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3228975</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>182424</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11753850" y="12192000"/>
+          <a:ext cx="8610600" cy="4878248"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2814008</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="오른쪽 화살표 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9877425" y="14077950"/>
+          <a:ext cx="1461458" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>31552</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="직사각형 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4533900" y="12287250"/>
+          <a:ext cx="441127" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>w</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>31552</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="직사각형 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4533900" y="12725400"/>
+          <a:ext cx="441127" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>S</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>212527</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="직사각형 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4029075" y="12725400"/>
+          <a:ext cx="441127" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>545902</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="직사각형 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5048250" y="12725400"/>
+          <a:ext cx="441127" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>D</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="직사각형 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5610225" y="12725400"/>
+          <a:ext cx="1190625" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>Space</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>176210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="그룹 14"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7095566" y="12648357"/>
+          <a:ext cx="607359" cy="1437996"/>
+          <a:chOff x="9544050" y="11144249"/>
+          <a:chExt cx="1219199" cy="2828925"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="원형 11"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9544050" y="11934825"/>
+            <a:ext cx="1114425" cy="1114425"/>
+          </a:xfrm>
+          <a:prstGeom prst="pie">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 10799999"/>
+              <a:gd name="adj2" fmla="val 16200000"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="원형 12"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="9572624" y="11934825"/>
+            <a:ext cx="1190625" cy="1114425"/>
+          </a:xfrm>
+          <a:prstGeom prst="pie">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 10799999"/>
+              <a:gd name="adj2" fmla="val 16200000"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="원형 13"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9553575" y="11144249"/>
+            <a:ext cx="1190625" cy="2828925"/>
+          </a:xfrm>
+          <a:prstGeom prst="pie">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 0"/>
+              <a:gd name="adj2" fmla="val 10772277"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>441127</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="직사각형 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15992475" y="12287250"/>
+          <a:ext cx="441127" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>w</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>441127</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="직사각형 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15992475" y="12725400"/>
+          <a:ext cx="441127" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>S</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>622102</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="직사각형 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15487650" y="12725400"/>
+          <a:ext cx="441127" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>269677</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="직사각형 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16506825" y="12725400"/>
+          <a:ext cx="441127" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>D</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="직사각형 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17068800" y="12725400"/>
+          <a:ext cx="1190625" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>Space</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>176210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="21" name="그룹 20"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="18531729" y="12648357"/>
+          <a:ext cx="607359" cy="1437996"/>
+          <a:chOff x="9544050" y="11144249"/>
+          <a:chExt cx="1219199" cy="2828925"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="원형 21"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9544050" y="11934825"/>
+            <a:ext cx="1114425" cy="1114425"/>
+          </a:xfrm>
+          <a:prstGeom prst="pie">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 10799999"/>
+              <a:gd name="adj2" fmla="val 16200000"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="원형 22"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="9572624" y="11934825"/>
+            <a:ext cx="1190625" cy="1114425"/>
+          </a:xfrm>
+          <a:prstGeom prst="pie">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 10799999"/>
+              <a:gd name="adj2" fmla="val 16200000"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="원형 23"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9553575" y="11144249"/>
+            <a:ext cx="1190625" cy="2828925"/>
+          </a:xfrm>
+          <a:prstGeom prst="pie">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 0"/>
+              <a:gd name="adj2" fmla="val 10772277"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>201473</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="그림 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="18288000"/>
+          <a:ext cx="8610600" cy="4878248"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>422077</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="직사각형 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3552825" y="22555200"/>
+          <a:ext cx="441127" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>93973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="29" name="그룹 28"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3365688" y="20443855"/>
+          <a:ext cx="740709" cy="630488"/>
+          <a:chOff x="3324225" y="19431000"/>
+          <a:chExt cx="923925" cy="771525"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="타원 27"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3324225" y="19964400"/>
+            <a:ext cx="923925" cy="238125"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="직사각형 26"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3533775" y="19431000"/>
+            <a:ext cx="533400" cy="666750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>93973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="30" name="그룹 29"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5530664" y="20443855"/>
+          <a:ext cx="740709" cy="630488"/>
+          <a:chOff x="3324225" y="19431000"/>
+          <a:chExt cx="923925" cy="771525"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="타원 30"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3324225" y="19964400"/>
+            <a:ext cx="923925" cy="238125"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="직사각형 31"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3533775" y="19431000"/>
+            <a:ext cx="533400" cy="666750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3257550</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>201473</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="그림 41"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11782425" y="18288000"/>
+          <a:ext cx="8610600" cy="4878248"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>622102</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="직사각형 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14801850" y="22555200"/>
+          <a:ext cx="441127" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>93973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="44" name="그룹 43"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="14590060" y="20443855"/>
+          <a:ext cx="740709" cy="630488"/>
+          <a:chOff x="3324225" y="19431000"/>
+          <a:chExt cx="923925" cy="771525"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="타원 44"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3324225" y="19964400"/>
+            <a:ext cx="923925" cy="238125"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="46" name="직사각형 45"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3533775" y="19431000"/>
+            <a:ext cx="533400" cy="666750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>93973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="47" name="그룹 46"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="16755036" y="20443855"/>
+          <a:ext cx="740709" cy="630488"/>
+          <a:chOff x="3324225" y="19431000"/>
+          <a:chExt cx="923925" cy="771525"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="48" name="타원 47"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3324225" y="19964400"/>
+            <a:ext cx="923925" cy="238125"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="직사각형 48"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3533775" y="19431000"/>
+            <a:ext cx="533400" cy="666750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2814008</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="오른쪽 화살표 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9877425" y="20231100"/>
+          <a:ext cx="1461458" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>172898</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="그림 50"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="24545925"/>
+          <a:ext cx="8610600" cy="4878248"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>203002</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="직사각형 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4019550" y="28813125"/>
+          <a:ext cx="441127" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>65398</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="56" name="그룹 55"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5530664" y="26802633"/>
+          <a:ext cx="740709" cy="630488"/>
+          <a:chOff x="3324225" y="19431000"/>
+          <a:chExt cx="923925" cy="771525"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="57" name="타원 56"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3324225" y="19964400"/>
+            <a:ext cx="923925" cy="238125"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="58" name="직사각형 57"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3533775" y="19431000"/>
+            <a:ext cx="533400" cy="666750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3295650</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>172898</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="그림 58"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11820525" y="24545925"/>
+          <a:ext cx="8610600" cy="4878248"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>441127</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="직사각형 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15306675" y="28813125"/>
+          <a:ext cx="441127" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>65398</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="61" name="그룹 60"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="14628160" y="26802633"/>
+          <a:ext cx="740709" cy="630488"/>
+          <a:chOff x="3324225" y="19431000"/>
+          <a:chExt cx="923925" cy="771525"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="62" name="타원 61"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3324225" y="19964400"/>
+            <a:ext cx="923925" cy="238125"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="63" name="직사각형 62"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3533775" y="19431000"/>
+            <a:ext cx="533400" cy="666750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>65398</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="64" name="그룹 63"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="16793136" y="26802633"/>
+          <a:ext cx="740709" cy="630488"/>
+          <a:chOff x="3324225" y="19431000"/>
+          <a:chExt cx="923925" cy="771525"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="65" name="타원 64"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3324225" y="19964400"/>
+            <a:ext cx="923925" cy="238125"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="66" name="직사각형 65"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3533775" y="19431000"/>
+            <a:ext cx="533400" cy="666750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2814008</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="오른쪽 화살표 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9877425" y="26527125"/>
+          <a:ext cx="1461458" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>113023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="타원 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3781425" y="26221048"/>
+          <a:ext cx="2190749" cy="487052"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>113023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="타원 69"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15049500" y="26221048"/>
+          <a:ext cx="2190749" cy="487052"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>172898</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="그림 70"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="531719" y="31109771"/>
+          <a:ext cx="8592671" cy="4955569"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>335617</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>90943</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="직사각형 71"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5266205" y="35444207"/>
+          <a:ext cx="438885" cy="378198"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>275105</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>24445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>251112</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>146800</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="86" name="그룹 85"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4522134" y="32936121"/>
+          <a:ext cx="659566" cy="761091"/>
+          <a:chOff x="4522134" y="32510298"/>
+          <a:chExt cx="659566" cy="761090"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="76" name="그룹 75"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4679017" y="32510298"/>
+            <a:ext cx="341218" cy="290442"/>
+            <a:chOff x="3324225" y="19431000"/>
+            <a:chExt cx="923925" cy="771525"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="77" name="타원 76"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3324225" y="19964400"/>
+              <a:ext cx="923925" cy="238125"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="78" name="직사각형 77"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3533775" y="19431000"/>
+              <a:ext cx="533400" cy="666750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="80" name="그룹 79"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4589370" y="32597912"/>
+            <a:ext cx="501586" cy="426946"/>
+            <a:chOff x="3324225" y="19431000"/>
+            <a:chExt cx="923925" cy="771525"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="81" name="타원 80"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3324225" y="19964400"/>
+              <a:ext cx="923925" cy="238125"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="82" name="직사각형 81"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3533775" y="19431000"/>
+              <a:ext cx="533400" cy="666750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="83" name="그룹 82"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4522134" y="32709971"/>
+            <a:ext cx="659566" cy="561417"/>
+            <a:chOff x="3324225" y="19431000"/>
+            <a:chExt cx="923925" cy="771525"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="84" name="타원 83"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3324225" y="19964400"/>
+              <a:ext cx="923925" cy="238125"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="85" name="직사각형 84"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3533775" y="19431000"/>
+              <a:ext cx="533400" cy="666750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3344396</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>383803</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>172898</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="그림 86"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11849661" y="31109771"/>
+          <a:ext cx="8592671" cy="4955569"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>626971</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>382297</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="직사각형 87"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16584147" y="35444207"/>
+          <a:ext cx="438885" cy="378198"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>566458</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>24445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>542466</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>146800</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="89" name="그룹 88"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="15840076" y="32936121"/>
+          <a:ext cx="659566" cy="761091"/>
+          <a:chOff x="4522134" y="32510298"/>
+          <a:chExt cx="659566" cy="761090"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="90" name="그룹 89"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4679017" y="32510298"/>
+            <a:ext cx="341218" cy="290442"/>
+            <a:chOff x="3324225" y="19431000"/>
+            <a:chExt cx="923925" cy="771525"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="97" name="타원 96"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3324225" y="19964400"/>
+              <a:ext cx="923925" cy="238125"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="98" name="직사각형 97"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3533775" y="19431000"/>
+              <a:ext cx="533400" cy="666750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="91" name="그룹 90"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4589370" y="32597912"/>
+            <a:ext cx="501586" cy="426946"/>
+            <a:chOff x="3324225" y="19431000"/>
+            <a:chExt cx="923925" cy="771525"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="95" name="타원 94"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3324225" y="19964400"/>
+              <a:ext cx="923925" cy="238125"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="96" name="직사각형 95"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3533775" y="19431000"/>
+              <a:ext cx="533400" cy="666750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="92" name="그룹 91"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4522134" y="32709971"/>
+            <a:ext cx="659566" cy="561417"/>
+            <a:chOff x="3324225" y="19431000"/>
+            <a:chExt cx="923925" cy="771525"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="93" name="타원 92"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3324225" y="19964400"/>
+              <a:ext cx="923925" cy="238125"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="94" name="직사각형 93"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3533775" y="19431000"/>
+              <a:ext cx="533400" cy="666750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2814008</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>140073</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="오른쪽 화살표 98"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9857815" y="32743588"/>
+          <a:ext cx="1461458" cy="733985"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>112620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2814008</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>211231</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="오른쪽 화살표 99"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9857815" y="8752355"/>
+          <a:ext cx="1461458" cy="737347"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3230657</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>231964</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>206627</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="101" name="그림 100"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11735922" y="7168403"/>
+          <a:ext cx="8554571" cy="4871636"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>47064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>105662</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="그림 102"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="531718" y="37855711"/>
+          <a:ext cx="8592671" cy="4955569"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3344396</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>159124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>383803</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>4810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="104" name="그림 103"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11849661" y="37754859"/>
+          <a:ext cx="8592671" cy="4955569"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2814008</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>16810</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="오른쪽 화살표 104"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9857815" y="39646412"/>
+          <a:ext cx="1461458" cy="733986"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>302560</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="직사각형 105"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18736236" y="39086118"/>
+          <a:ext cx="1624853" cy="1086971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1800"/>
+            <a:t>미션 진행 판</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>549088</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="직사각형 106"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="39086118"/>
+          <a:ext cx="1624853" cy="1086971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1800"/>
+            <a:t>미션 진행 판</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1572747</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>9369</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>632573</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>1122</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="53" name="그룹 52"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2771776" y="39521310"/>
+          <a:ext cx="740709" cy="630488"/>
+          <a:chOff x="3324225" y="19431000"/>
+          <a:chExt cx="923925" cy="771525"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="54" name="타원 53"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3324225" y="19964400"/>
+            <a:ext cx="923925" cy="238125"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="55" name="직사각형 54"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3533775" y="19431000"/>
+            <a:ext cx="533400" cy="666750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>351306</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>9369</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>408456</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>1122</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="108" name="그룹 107"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5965453" y="39521310"/>
+          <a:ext cx="740709" cy="630488"/>
+          <a:chOff x="3324225" y="19431000"/>
+          <a:chExt cx="923925" cy="771525"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="109" name="타원 108"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3324225" y="19964400"/>
+            <a:ext cx="923925" cy="238125"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="110" name="직사각형 109"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3533775" y="19431000"/>
+            <a:ext cx="533400" cy="666750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>2240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>60839</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="111" name="그림 110"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="531718" y="44624064"/>
+          <a:ext cx="8592671" cy="4955569"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2814008</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>184898</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="오른쪽 화살표 111"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9857815" y="46414765"/>
+          <a:ext cx="1461458" cy="733986"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>549088</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="직사각형 112"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="45854471"/>
+          <a:ext cx="1624853" cy="1086971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1800"/>
+            <a:t>미션 진행 판</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>586629</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>99016</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1327338</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>90769</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="114" name="그룹 113"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1785658" y="48127428"/>
+          <a:ext cx="740709" cy="630488"/>
+          <a:chOff x="3324225" y="19431000"/>
+          <a:chExt cx="923925" cy="771525"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="115" name="타원 114"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3324225" y="19964400"/>
+            <a:ext cx="923925" cy="238125"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="116" name="직사각형 115"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3533775" y="19431000"/>
+            <a:ext cx="533400" cy="666750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>149601</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>118853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>537883</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>23533</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="117" name="그룹 116"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5763748" y="46018147"/>
+          <a:ext cx="388282" cy="330504"/>
+          <a:chOff x="3324225" y="19431000"/>
+          <a:chExt cx="923925" cy="771525"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="118" name="타원 117"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3324225" y="19964400"/>
+            <a:ext cx="923925" cy="238125"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="119" name="직사각형 118"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3533775" y="19431000"/>
+            <a:ext cx="533400" cy="666750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>65398</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="120" name="그룹 119"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3289488" y="26802633"/>
+          <a:ext cx="740709" cy="630488"/>
+          <a:chOff x="3324225" y="19431000"/>
+          <a:chExt cx="923925" cy="771525"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="121" name="타원 120"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3324225" y="19964400"/>
+            <a:ext cx="923925" cy="238125"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="122" name="직사각형 121"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3533775" y="19431000"/>
+            <a:ext cx="533400" cy="666750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1456767</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>549089</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>60412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="타원 122"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2655796" y="46694912"/>
+          <a:ext cx="1456764" cy="329353"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>27453</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>2240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>417419</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>60839</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="124" name="그림 123"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11883277" y="44624064"/>
+          <a:ext cx="8592671" cy="4955569"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>100855</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>60412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="타원 124"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14007355" y="46694912"/>
+          <a:ext cx="1456764" cy="329353"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>159122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>4808</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="126" name="그림 125"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="531718" y="51168298"/>
+          <a:ext cx="8592671" cy="4955569"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>549088</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="직사각형 126"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="52286647"/>
+          <a:ext cx="1624853" cy="1086971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1800"/>
+            <a:t>미션 진행 판</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1282512</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>201706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>374834</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>208327</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="131" name="그룹 130"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2481541" y="51849618"/>
+          <a:ext cx="1456764" cy="2348650"/>
+          <a:chOff x="2481541" y="51849618"/>
+          <a:chExt cx="1456764" cy="2348650"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="128" name="타원 127"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2481541" y="53868915"/>
+            <a:ext cx="1456764" cy="329353"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="129" name="포인트가 5개인 별 128"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2823883" y="51849618"/>
+            <a:ext cx="773206" cy="773206"/>
+          </a:xfrm>
+          <a:prstGeom prst="star5">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 30896"/>
+              <a:gd name="hf" fmla="val 105146"/>
+              <a:gd name="vf" fmla="val 110557"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>217953</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254404</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>152298</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="136" name="그룹 135"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5832100" y="51378971"/>
+          <a:ext cx="720010" cy="1911621"/>
+          <a:chOff x="2481541" y="50330570"/>
+          <a:chExt cx="1456764" cy="3867698"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="137" name="타원 136"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2481541" y="53868915"/>
+            <a:ext cx="1456764" cy="329353"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="138" name="포인트가 5개인 별 137"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2823884" y="50330570"/>
+            <a:ext cx="773205" cy="773205"/>
+          </a:xfrm>
+          <a:prstGeom prst="star5">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 30896"/>
+              <a:gd name="hf" fmla="val 105146"/>
+              <a:gd name="vf" fmla="val 110557"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2814008</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>128869</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="139" name="오른쪽 화살표 138"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9857815" y="52746089"/>
+          <a:ext cx="1461458" cy="733986"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>61070</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>159122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>451036</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>4808</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="140" name="그림 139"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11916894" y="51168298"/>
+          <a:ext cx="8592671" cy="4955569"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>123264</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="직사각형 140"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18814676" y="52286647"/>
+          <a:ext cx="1624853" cy="1086971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1800"/>
+            <a:t>미션 진행 판</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>127188</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>121428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>867897</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>113181</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="142" name="그룹 141"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1326217" y="52833899"/>
+          <a:ext cx="740709" cy="630488"/>
+          <a:chOff x="3324225" y="19431000"/>
+          <a:chExt cx="923925" cy="771525"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="143" name="타원 142"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3324225" y="19964400"/>
+            <a:ext cx="923925" cy="238125"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="144" name="직사각형 143"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3533775" y="19431000"/>
+            <a:ext cx="533400" cy="666750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>13445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>72043</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="145" name="그림 144"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="531718" y="57622886"/>
+          <a:ext cx="8592671" cy="4955569"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1456765</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>145678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="146" name="직사각형 145"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2655794" y="58606766"/>
+          <a:ext cx="4459941" cy="515470"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1800"/>
+            <a:t>미션 완료를 알리는 알림창</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161923</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>13445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>551889</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>72043</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="147" name="그림 146"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12017747" y="57622886"/>
+          <a:ext cx="8592671" cy="4955569"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2814008</xdr:colOff>
+      <xdr:row>281</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="148" name="오른쪽 화살표 147"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9857815" y="59312736"/>
+          <a:ext cx="1461458" cy="733986"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>661147</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="149" name="직사각형 148"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12617824" y="58371441"/>
+          <a:ext cx="7418294" cy="3395383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>437030</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="150" name="직사각형 149"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12976412" y="59043794"/>
+          <a:ext cx="1804147" cy="2263589"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="151" name="직사각형 150"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15307235" y="59043794"/>
+          <a:ext cx="1804147" cy="2263589"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>437029</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="152" name="직사각형 151"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17761323" y="59043794"/>
+          <a:ext cx="1804147" cy="2263589"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -778,10 +6514,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B29"/>
+  <dimension ref="B2:M267"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A264" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S267" sqref="S267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -845,62 +6581,274 @@
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="8" t="s">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="M31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="M32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="M33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>30</v>
+      </c>
+      <c r="M58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>32</v>
+      </c>
+      <c r="M59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>35</v>
+      </c>
+      <c r="M85" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>36</v>
+      </c>
+      <c r="M86" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>37</v>
+      </c>
+      <c r="M87" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="115" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>42</v>
+      </c>
+      <c r="M115" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="116" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>36</v>
+      </c>
+      <c r="M116" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="117" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>37</v>
+      </c>
+      <c r="M117" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="118" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="144" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
+        <v>44</v>
+      </c>
+      <c r="M144" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="145" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B145" t="s">
+        <v>36</v>
+      </c>
+      <c r="M145" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="146" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
+        <v>37</v>
+      </c>
+      <c r="M146" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="147" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B147" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="174" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B174" t="s">
+        <v>51</v>
+      </c>
+      <c r="M174" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="175" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B175" t="s">
+        <v>52</v>
+      </c>
+      <c r="M175" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="176" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B176" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="204" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B204" t="s">
+        <v>55</v>
+      </c>
+      <c r="M204" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="205" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B205" t="s">
+        <v>52</v>
+      </c>
+      <c r="M205" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="206" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B206" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="236" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B236" t="s">
+        <v>58</v>
+      </c>
+      <c r="M236" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="237" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B237" t="s">
+        <v>52</v>
+      </c>
+      <c r="M237" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="238" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B238" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="266" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B266" t="s">
+        <v>61</v>
+      </c>
+      <c r="M266" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="267" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B267" t="s">
+        <v>62</v>
+      </c>
+      <c r="M267" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Document/시스템 기획서/DreamCatcher_튜토리얼_강동민.xlsx
+++ b/Document/시스템 기획서/DreamCatcher_튜토리얼_강동민.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="9525" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="9525" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
-    <sheet name="튜토리얼" sheetId="4" r:id="rId2"/>
+    <sheet name="조작 튜토리얼" sheetId="4" r:id="rId2"/>
+    <sheet name="미션 튜토리얼" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="47">
   <si>
     <t>작성자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -67,10 +68,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>튜토리얼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 유저에게 기본 조작법과 스킬에 대한 학습을 주기 위한 장치</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -103,18 +100,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 미션은 섬멸, 구슬받기, 방어 간략화 시킨 미션을 빠르게 진행 설명함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어: 방어대상을 공격하는 2마리 상대 [멥의 끝과 끝에 소환하여 하나는 유저, 하나는 방어대상으로 돌격하게 만듬]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구슬 받기: 2개의 구슬을 받으면 완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>3. 예외처리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -123,19 +108,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 몬스터는 2마리 이상 소환되지 않음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 튜토리얼 중간에 포탈로 이동시 스킵됨.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> - 조작키는 W, A, S, D, Space, 일반공격 로 이동과 대쉬 테스트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>섬멸: 몬스터 2마리 상대</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -231,55 +208,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>6. 섬멸 튜토리얼 시작</t>
+    <t>기본 조작 튜토리얼</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 버튼 장금 해제후 몬스터 2마리 소환</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 왼쪽에 미션 진행판 표시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 미션 완료시 다음 튜토리얼로 진행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7. 방어 튜토리얼 시작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7. 방어 튜토리얼 진행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. 섬멸 튜토리얼 진행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8. 구슬 받기 튜토리얼 시작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8. 구슬 받기 튜토리얼 진행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 미션 완료시 튜토리얼 종료 미션 선택창 생성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9. 튜토리얼 완료시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 알림창을 뛰워 곧 미션 선택창이 나온다고 알림</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 미션 선택창 에서 선택하여 게임 진행</t>
+    <t>미션 튜토리얼</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -447,13 +380,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>590551</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>206627</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -485,13 +418,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>590551</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>130428</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -523,13 +456,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>3228975</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>182424</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -561,13 +494,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>2814008</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -615,13 +548,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>31552</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -673,13 +606,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>31552</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -731,13 +664,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>212527</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -789,13 +722,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>545902</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -847,13 +780,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -905,13 +838,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>176210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -921,7 +854,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7095566" y="12648357"/>
+          <a:off x="7095566" y="11796710"/>
           <a:ext cx="607359" cy="1437996"/>
           <a:chOff x="9544050" y="11144249"/>
           <a:chExt cx="1219199" cy="2828925"/>
@@ -1072,13 +1005,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>441127</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1130,13 +1063,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>441127</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1188,13 +1121,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>622102</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1246,13 +1179,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>269677</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1304,13 +1237,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1362,13 +1295,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>523876</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>176210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>447676</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1378,7 +1311,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18531729" y="12648357"/>
+          <a:off x="18531729" y="11796710"/>
           <a:ext cx="607359" cy="1437996"/>
           <a:chOff x="9544050" y="11144249"/>
           <a:chExt cx="1219199" cy="2828925"/>
@@ -1529,13 +1462,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>201473</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1567,13 +1500,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>422077</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1627,13 +1560,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>93973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1643,7 +1576,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3365688" y="20443855"/>
+          <a:off x="3365688" y="19592208"/>
           <a:ext cx="740709" cy="630488"/>
           <a:chOff x="3324225" y="19431000"/>
           <a:chExt cx="923925" cy="771525"/>
@@ -1740,13 +1673,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>93973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>657226</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1756,7 +1689,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5530664" y="20443855"/>
+          <a:off x="5530664" y="19592208"/>
           <a:ext cx="740709" cy="630488"/>
           <a:chOff x="3324225" y="19431000"/>
           <a:chExt cx="923925" cy="771525"/>
@@ -1853,13 +1786,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>3257550</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>201473</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1891,13 +1824,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>622102</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1951,13 +1884,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>93973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1967,7 +1900,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14590060" y="20443855"/>
+          <a:off x="14590060" y="19592208"/>
           <a:ext cx="740709" cy="630488"/>
           <a:chOff x="3324225" y="19431000"/>
           <a:chExt cx="923925" cy="771525"/>
@@ -2064,13 +1997,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>93973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2080,7 +2013,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16755036" y="20443855"/>
+          <a:off x="16755036" y="19592208"/>
           <a:ext cx="740709" cy="630488"/>
           <a:chOff x="3324225" y="19431000"/>
           <a:chExt cx="923925" cy="771525"/>
@@ -2177,13 +2110,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>2814008</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2231,14 +2164,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>172898</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>172899</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2269,13 +2202,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>203002</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2329,13 +2262,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>65398</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>657226</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2345,7 +2278,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5530664" y="26802633"/>
+          <a:off x="5530664" y="25950986"/>
           <a:ext cx="740709" cy="630488"/>
           <a:chOff x="3324225" y="19431000"/>
           <a:chExt cx="923925" cy="771525"/>
@@ -2442,14 +2375,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>3295650</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>172898</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>172899</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2480,13 +2413,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>441127</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2540,13 +2473,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>65398</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2556,7 +2489,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14628160" y="26802633"/>
+          <a:off x="14628160" y="25950986"/>
           <a:ext cx="740709" cy="630488"/>
           <a:chOff x="3324225" y="19431000"/>
           <a:chExt cx="923925" cy="771525"/>
@@ -2653,13 +2586,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>65398</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>209551</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2669,7 +2602,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16793136" y="26802633"/>
+          <a:off x="16793136" y="25950986"/>
           <a:ext cx="740709" cy="630488"/>
           <a:chOff x="3324225" y="19431000"/>
           <a:chExt cx="923925" cy="771525"/>
@@ -2766,13 +2699,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>2814008</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2820,13 +2753,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>113023</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>342899</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2880,13 +2813,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>113023</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2940,13 +2873,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>172898</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2978,13 +2911,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>335617</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>90943</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3038,13 +2971,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>275105</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>24445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>251112</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>146800</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3054,7 +2987,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4522134" y="32936121"/>
+          <a:off x="4522134" y="32084474"/>
           <a:ext cx="659566" cy="761091"/>
           <a:chOff x="4522134" y="32510298"/>
           <a:chExt cx="659566" cy="761090"/>
@@ -3361,13 +3294,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>3344396</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>383803</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>172898</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3399,13 +3332,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>626971</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>382297</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3459,13 +3392,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>566458</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>24445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>542466</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>146800</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3475,7 +3408,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15840076" y="32936121"/>
+          <a:off x="15840076" y="32084474"/>
           <a:ext cx="659566" cy="761091"/>
           <a:chOff x="4522134" y="32510298"/>
           <a:chExt cx="659566" cy="761090"/>
@@ -3782,13 +3715,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>2814008</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>140073</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3836,13 +3769,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>112620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>2814008</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>211231</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3890,13 +3823,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>3230657</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>231964</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>206627</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3924,862 +3857,17 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>177</xdr:row>
-      <xdr:rowOff>47064</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>619124</xdr:colOff>
-      <xdr:row>200</xdr:row>
-      <xdr:rowOff>105662</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="103" name="그림 102"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="531718" y="37855711"/>
-          <a:ext cx="8592671" cy="4955569"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>3344396</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>159124</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>383803</xdr:colOff>
-      <xdr:row>200</xdr:row>
-      <xdr:rowOff>4810</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="104" name="그림 103"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11849661" y="37754859"/>
-          <a:ext cx="8592671" cy="4955569"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>185</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>2814008</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>16810</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="105" name="오른쪽 화살표 104"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9857815" y="39646412"/>
-          <a:ext cx="1461458" cy="733986"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>183</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>302560</xdr:colOff>
-      <xdr:row>188</xdr:row>
-      <xdr:rowOff>22413</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="106" name="직사각형 105"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18736236" y="39086118"/>
-          <a:ext cx="1624853" cy="1086971"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1800"/>
-            <a:t>미션 진행 판</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>448235</xdr:colOff>
-      <xdr:row>183</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>549088</xdr:colOff>
-      <xdr:row>188</xdr:row>
-      <xdr:rowOff>22413</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="107" name="직사각형 106"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7429500" y="39086118"/>
-          <a:ext cx="1624853" cy="1086971"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1800"/>
-            <a:t>미션 진행 판</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1572747</xdr:colOff>
-      <xdr:row>185</xdr:row>
-      <xdr:rowOff>9369</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>632573</xdr:colOff>
-      <xdr:row>188</xdr:row>
-      <xdr:rowOff>1122</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="53" name="그룹 52"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="2771776" y="39521310"/>
-          <a:ext cx="740709" cy="630488"/>
-          <a:chOff x="3324225" y="19431000"/>
-          <a:chExt cx="923925" cy="771525"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="54" name="타원 53"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3324225" y="19964400"/>
-            <a:ext cx="923925" cy="238125"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="55" name="직사각형 54"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3533775" y="19431000"/>
-            <a:ext cx="533400" cy="666750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>351306</xdr:colOff>
-      <xdr:row>185</xdr:row>
-      <xdr:rowOff>9369</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>408456</xdr:colOff>
-      <xdr:row>188</xdr:row>
-      <xdr:rowOff>1122</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="108" name="그룹 107"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5965453" y="39521310"/>
-          <a:ext cx="740709" cy="630488"/>
-          <a:chOff x="3324225" y="19431000"/>
-          <a:chExt cx="923925" cy="771525"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="109" name="타원 108"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3324225" y="19964400"/>
-            <a:ext cx="923925" cy="238125"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="110" name="직사각형 109"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3533775" y="19431000"/>
-            <a:ext cx="533400" cy="666750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>209</xdr:row>
-      <xdr:rowOff>2240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>619124</xdr:colOff>
-      <xdr:row>232</xdr:row>
-      <xdr:rowOff>60839</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="111" name="그림 110"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="531718" y="44624064"/>
-          <a:ext cx="8592671" cy="4955569"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>217</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>2814008</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>184898</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="112" name="오른쪽 화살표 111"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9857815" y="46414765"/>
-          <a:ext cx="1461458" cy="733986"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>448235</xdr:colOff>
-      <xdr:row>214</xdr:row>
-      <xdr:rowOff>168089</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>549088</xdr:colOff>
-      <xdr:row>219</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="113" name="직사각형 112"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7429500" y="45854471"/>
-          <a:ext cx="1624853" cy="1086971"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1800"/>
-            <a:t>미션 진행 판</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>586629</xdr:colOff>
-      <xdr:row>225</xdr:row>
-      <xdr:rowOff>99016</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1327338</xdr:colOff>
-      <xdr:row>228</xdr:row>
-      <xdr:rowOff>90769</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="114" name="그룹 113"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1785658" y="48127428"/>
-          <a:ext cx="740709" cy="630488"/>
-          <a:chOff x="3324225" y="19431000"/>
-          <a:chExt cx="923925" cy="771525"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="115" name="타원 114"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3324225" y="19964400"/>
-            <a:ext cx="923925" cy="238125"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="116" name="직사각형 115"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3533775" y="19431000"/>
-            <a:ext cx="533400" cy="666750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>149601</xdr:colOff>
-      <xdr:row>215</xdr:row>
-      <xdr:rowOff>118853</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>537883</xdr:colOff>
-      <xdr:row>217</xdr:row>
-      <xdr:rowOff>23533</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="117" name="그룹 116"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5763748" y="46018147"/>
-          <a:ext cx="388282" cy="330504"/>
-          <a:chOff x="3324225" y="19431000"/>
-          <a:chExt cx="923925" cy="771525"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="118" name="타원 117"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3324225" y="19964400"/>
-            <a:ext cx="923925" cy="238125"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="119" name="직사각형 118"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3533775" y="19431000"/>
-            <a:ext cx="533400" cy="666750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>409576</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>65398</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>466726</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4789,7 +3877,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3289488" y="26802633"/>
+          <a:off x="3289488" y="25950986"/>
           <a:ext cx="740709" cy="630488"/>
           <a:chOff x="3324225" y="19431000"/>
           <a:chExt cx="923925" cy="771525"/>
@@ -4882,82 +3970,103 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1456767</xdr:colOff>
-      <xdr:row>218</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>549089</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>60412</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="123" name="타원 122"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>206627</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2655796" y="46694912"/>
-          <a:ext cx="1456764" cy="329353"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
+          <a:off x="542926" y="6219825"/>
+          <a:ext cx="8572500" cy="4797677"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>27453</xdr:colOff>
-      <xdr:row>209</xdr:row>
-      <xdr:rowOff>2240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>417419</xdr:colOff>
-      <xdr:row>232</xdr:row>
-      <xdr:rowOff>60839</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>130428</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="124" name="그림 123"/>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="542926" y="11801475"/>
+          <a:ext cx="8572500" cy="4797678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3228975</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>182424</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4970,8 +4079,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11883277" y="44624064"/>
-          <a:ext cx="8592671" cy="4955569"/>
+          <a:off x="11753850" y="11772900"/>
+          <a:ext cx="8610600" cy="4878249"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4982,415 +4091,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>100855</xdr:colOff>
-      <xdr:row>218</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>60412</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2814008</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="125" name="타원 124"/>
+        <xdr:cNvPr id="5" name="오른쪽 화살표 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14007355" y="46694912"/>
-          <a:ext cx="1456764" cy="329353"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>239</xdr:row>
-      <xdr:rowOff>159122</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>619124</xdr:colOff>
-      <xdr:row>263</xdr:row>
-      <xdr:rowOff>4808</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="126" name="그림 125"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="531718" y="51168298"/>
-          <a:ext cx="8592671" cy="4955569"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>448235</xdr:colOff>
-      <xdr:row>245</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>549088</xdr:colOff>
-      <xdr:row>250</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="127" name="직사각형 126"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7429500" y="52286647"/>
-          <a:ext cx="1624853" cy="1086971"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1800"/>
-            <a:t>미션 진행 판</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1282512</xdr:colOff>
-      <xdr:row>242</xdr:row>
-      <xdr:rowOff>201706</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>374834</xdr:colOff>
-      <xdr:row>253</xdr:row>
-      <xdr:rowOff>208327</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="131" name="그룹 130"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="2481541" y="51849618"/>
-          <a:ext cx="1456764" cy="2348650"/>
-          <a:chOff x="2481541" y="51849618"/>
-          <a:chExt cx="1456764" cy="2348650"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="128" name="타원 127"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2481541" y="53868915"/>
-            <a:ext cx="1456764" cy="329353"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FFC000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="129" name="포인트가 5개인 별 128"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2823883" y="51849618"/>
-            <a:ext cx="773206" cy="773206"/>
-          </a:xfrm>
-          <a:prstGeom prst="star5">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 30896"/>
-              <a:gd name="hf" fmla="val 105146"/>
-              <a:gd name="vf" fmla="val 110557"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent4">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent4"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent4"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>217953</xdr:colOff>
-      <xdr:row>240</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>254404</xdr:colOff>
-      <xdr:row>249</xdr:row>
-      <xdr:rowOff>152298</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="136" name="그룹 135"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5832100" y="51378971"/>
-          <a:ext cx="720010" cy="1911621"/>
-          <a:chOff x="2481541" y="50330570"/>
-          <a:chExt cx="1456764" cy="3867698"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="137" name="타원 136"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2481541" y="53868915"/>
-            <a:ext cx="1456764" cy="329353"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FFC000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="138" name="포인트가 5개인 별 137"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2823884" y="50330570"/>
-            <a:ext cx="773205" cy="773205"/>
-          </a:xfrm>
-          <a:prstGeom prst="star5">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 30896"/>
-              <a:gd name="hf" fmla="val 105146"/>
-              <a:gd name="vf" fmla="val 110557"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent4">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent4"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent4"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>247</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>2814008</xdr:colOff>
-      <xdr:row>250</xdr:row>
-      <xdr:rowOff>128869</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="139" name="오른쪽 화살표 138"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9857815" y="52746089"/>
-          <a:ext cx="1461458" cy="733986"/>
+          <a:off x="9877425" y="13658850"/>
+          <a:ext cx="1461458" cy="723900"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -5423,66 +4143,28 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>61070</xdr:colOff>
-      <xdr:row>239</xdr:row>
-      <xdr:rowOff>159122</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>451036</xdr:colOff>
-      <xdr:row>263</xdr:row>
-      <xdr:rowOff>4808</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="140" name="그림 139"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11916894" y="51168298"/>
-          <a:ext cx="8592671" cy="4955569"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>123264</xdr:colOff>
-      <xdr:row>245</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>250</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>31552</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="141" name="직사각형 140"/>
+        <xdr:cNvPr id="6" name="직사각형 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18814676" y="52286647"/>
-          <a:ext cx="1624853" cy="1086971"/>
+          <a:off x="4533900" y="11868150"/>
+          <a:ext cx="441127" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5510,9 +4192,10 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1800"/>
-            <a:t>미션 진행 판</a:t>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>w</a:t>
           </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5520,33 +4203,987 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>127188</xdr:colOff>
-      <xdr:row>247</xdr:row>
-      <xdr:rowOff>121428</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>867897</xdr:colOff>
-      <xdr:row>250</xdr:row>
-      <xdr:rowOff>113181</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>31552</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="직사각형 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4533900" y="12306300"/>
+          <a:ext cx="441127" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>S</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>212527</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="직사각형 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4029075" y="12306300"/>
+          <a:ext cx="441127" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>545902</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="직사각형 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5048250" y="12306300"/>
+          <a:ext cx="441127" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>D</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="직사각형 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5610225" y="12306300"/>
+          <a:ext cx="1190625" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>Space</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>176210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="142" name="그룹 141"/>
+        <xdr:cNvPr id="11" name="그룹 10"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1326217" y="52833899"/>
-          <a:ext cx="740709" cy="630488"/>
-          <a:chOff x="3324225" y="19431000"/>
-          <a:chExt cx="923925" cy="771525"/>
+          <a:off x="7115176" y="11615735"/>
+          <a:ext cx="609600" cy="1414464"/>
+          <a:chOff x="9544050" y="11144249"/>
+          <a:chExt cx="1219199" cy="2828925"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="143" name="타원 142"/>
+          <xdr:cNvPr id="12" name="원형 11"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9544050" y="11934825"/>
+            <a:ext cx="1114425" cy="1114425"/>
+          </a:xfrm>
+          <a:prstGeom prst="pie">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 10799999"/>
+              <a:gd name="adj2" fmla="val 16200000"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="원형 12"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="9572624" y="11934825"/>
+            <a:ext cx="1190625" cy="1114425"/>
+          </a:xfrm>
+          <a:prstGeom prst="pie">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 10799999"/>
+              <a:gd name="adj2" fmla="val 16200000"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="원형 13"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9553575" y="11144249"/>
+            <a:ext cx="1190625" cy="2828925"/>
+          </a:xfrm>
+          <a:prstGeom prst="pie">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 0"/>
+              <a:gd name="adj2" fmla="val 10772277"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>441127</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="직사각형 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15992475" y="11868150"/>
+          <a:ext cx="441127" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>w</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>441127</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="직사각형 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15992475" y="12306300"/>
+          <a:ext cx="441127" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>S</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>622102</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="직사각형 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15487650" y="12306300"/>
+          <a:ext cx="441127" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>269677</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="직사각형 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16506825" y="12306300"/>
+          <a:ext cx="441127" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>D</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="직사각형 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17068800" y="12306300"/>
+          <a:ext cx="1190625" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
+            <a:t>Space</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>176210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="그룹 19"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="18573751" y="11615735"/>
+          <a:ext cx="609600" cy="1414464"/>
+          <a:chOff x="9544050" y="11144249"/>
+          <a:chExt cx="1219199" cy="2828925"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="원형 20"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9544050" y="11934825"/>
+            <a:ext cx="1114425" cy="1114425"/>
+          </a:xfrm>
+          <a:prstGeom prst="pie">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 10799999"/>
+              <a:gd name="adj2" fmla="val 16200000"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="원형 21"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="9572624" y="11934825"/>
+            <a:ext cx="1190625" cy="1114425"/>
+          </a:xfrm>
+          <a:prstGeom prst="pie">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 10799999"/>
+              <a:gd name="adj2" fmla="val 16200000"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="원형 22"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9553575" y="11144249"/>
+            <a:ext cx="1190625" cy="2828925"/>
+          </a:xfrm>
+          <a:prstGeom prst="pie">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 0"/>
+              <a:gd name="adj2" fmla="val 10772277"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>201473</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="그림 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="17868900"/>
+          <a:ext cx="8610600" cy="4878248"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>422077</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="직사각형 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3552825" y="22136100"/>
+          <a:ext cx="441127" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>93973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="26" name="그룹 25"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3371851" y="19286848"/>
+          <a:ext cx="742950" cy="620402"/>
+          <a:chOff x="3324225" y="19431000"/>
+          <a:chExt cx="923925" cy="771525"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="타원 26"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5591,7 +5228,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="144" name="직사각형 143"/>
+          <xdr:cNvPr id="28" name="직사각형 27"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5631,22 +5268,135 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>93973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="29" name="그룹 28"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5543551" y="19286848"/>
+          <a:ext cx="742950" cy="620402"/>
+          <a:chOff x="3324225" y="19431000"/>
+          <a:chExt cx="923925" cy="771525"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="타원 29"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3324225" y="19964400"/>
+            <a:ext cx="923925" cy="238125"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="직사각형 30"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3533775" y="19431000"/>
+            <a:ext cx="533400" cy="666750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>270</xdr:row>
-      <xdr:rowOff>13445</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>619124</xdr:colOff>
-      <xdr:row>293</xdr:row>
-      <xdr:rowOff>72043</xdr:rowOff>
+      <xdr:colOff>3257550</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>201473</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="145" name="그림 144"/>
+        <xdr:cNvPr id="32" name="그림 31"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5659,8 +5409,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="531718" y="57622886"/>
-          <a:ext cx="8592671" cy="4955569"/>
+          <a:off x="11782425" y="17868900"/>
+          <a:ext cx="8610600" cy="4878248"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5671,30 +5421,36 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1456765</xdr:colOff>
-      <xdr:row>274</xdr:row>
-      <xdr:rowOff>145678</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>277</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>622102</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="146" name="직사각형 145"/>
+        <xdr:cNvPr id="33" name="직사각형 32"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2655794" y="58606766"/>
-          <a:ext cx="4459941" cy="515470"/>
+          <a:off x="14801850" y="22136100"/>
+          <a:ext cx="441127" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -5717,75 +5473,260 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1800"/>
-            <a:t>미션 완료를 알리는 알림창</a:t>
-          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>161923</xdr:colOff>
-      <xdr:row>270</xdr:row>
-      <xdr:rowOff>13445</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>551889</xdr:colOff>
-      <xdr:row>293</xdr:row>
-      <xdr:rowOff>72043</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="147" name="그림 146"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12017747" y="57622886"/>
-          <a:ext cx="8592671" cy="4955569"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>93973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="34" name="그룹 33"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="14620876" y="19286848"/>
+          <a:ext cx="742950" cy="620402"/>
+          <a:chOff x="3324225" y="19431000"/>
+          <a:chExt cx="923925" cy="771525"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="타원 34"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3324225" y="19964400"/>
+            <a:ext cx="923925" cy="238125"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="직사각형 35"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3533775" y="19431000"/>
+            <a:ext cx="533400" cy="666750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>93973</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="37" name="그룹 36"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="16792576" y="19286848"/>
+          <a:ext cx="742950" cy="620402"/>
+          <a:chOff x="3324225" y="19431000"/>
+          <a:chExt cx="923925" cy="771525"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="타원 37"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3324225" y="19964400"/>
+            <a:ext cx="923925" cy="238125"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="직사각형 38"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3533775" y="19431000"/>
+            <a:ext cx="533400" cy="666750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>278</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>2814008</xdr:colOff>
-      <xdr:row>281</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="148" name="오른쪽 화살표 147"/>
+        <xdr:cNvPr id="40" name="오른쪽 화살표 39"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9857815" y="59312736"/>
-          <a:ext cx="1461458" cy="733986"/>
+          <a:off x="9877425" y="19812000"/>
+          <a:ext cx="1461458" cy="723900"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -5818,30 +5759,565 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>172899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="그림 40"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="24126825"/>
+          <a:ext cx="8610600" cy="4878249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>78442</xdr:colOff>
-      <xdr:row>273</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>661147</xdr:colOff>
-      <xdr:row>289</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>203002</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="149" name="직사각형 148"/>
+        <xdr:cNvPr id="42" name="직사각형 41"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12617824" y="58371441"/>
-          <a:ext cx="7418294" cy="3395383"/>
+          <a:off x="4019550" y="28394025"/>
+          <a:ext cx="441127" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>65398</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="43" name="그룹 42"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5543551" y="25544773"/>
+          <a:ext cx="742950" cy="620402"/>
+          <a:chOff x="3324225" y="19431000"/>
+          <a:chExt cx="923925" cy="771525"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="타원 43"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3324225" y="19964400"/>
+            <a:ext cx="923925" cy="238125"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="직사각형 44"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3533775" y="19431000"/>
+            <a:ext cx="533400" cy="666750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3295650</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>172899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="그림 45"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11820525" y="24126825"/>
+          <a:ext cx="8610600" cy="4878249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>441127</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="직사각형 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15306675" y="28394025"/>
+          <a:ext cx="441127" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>65398</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="48" name="그룹 47"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="14658976" y="25544773"/>
+          <a:ext cx="742950" cy="620402"/>
+          <a:chOff x="3324225" y="19431000"/>
+          <a:chExt cx="923925" cy="771525"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="타원 48"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3324225" y="19964400"/>
+            <a:ext cx="923925" cy="238125"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="50" name="직사각형 49"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3533775" y="19431000"/>
+            <a:ext cx="533400" cy="666750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>65398</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="51" name="그룹 50"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="16830676" y="25544773"/>
+          <a:ext cx="742950" cy="620402"/>
+          <a:chOff x="3324225" y="19431000"/>
+          <a:chExt cx="923925" cy="771525"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="52" name="타원 51"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3324225" y="19964400"/>
+            <a:ext cx="923925" cy="238125"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="53" name="직사각형 52"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3533775" y="19431000"/>
+            <a:ext cx="533400" cy="666750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2814008</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="오른쪽 화살표 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9877425" y="26108025"/>
+          <a:ext cx="1461458" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -5874,28 +6350,990 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>437030</xdr:colOff>
-      <xdr:row>276</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>287</xdr:row>
-      <xdr:rowOff>78442</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>113023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="150" name="직사각형 149"/>
+        <xdr:cNvPr id="55" name="타원 54"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12976412" y="59043794"/>
-          <a:ext cx="1804147" cy="2263589"/>
+          <a:off x="3781425" y="25801948"/>
+          <a:ext cx="2190749" cy="487052"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>113023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="타원 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15049500" y="25801948"/>
+          <a:ext cx="2190749" cy="487052"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>172898</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="그림 56"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="30203775"/>
+          <a:ext cx="8610600" cy="4878248"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>335617</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>90943</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="직사각형 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5279092" y="34470976"/>
+          <a:ext cx="441126" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>275105</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>24445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>251112</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>146800</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="59" name="그룹 58"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4532780" y="31580770"/>
+          <a:ext cx="661807" cy="751005"/>
+          <a:chOff x="4522134" y="32510298"/>
+          <a:chExt cx="659566" cy="761090"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="60" name="그룹 59"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4679017" y="32510298"/>
+            <a:ext cx="341218" cy="290442"/>
+            <a:chOff x="3324225" y="19431000"/>
+            <a:chExt cx="923925" cy="771525"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="67" name="타원 66"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3324225" y="19964400"/>
+              <a:ext cx="923925" cy="238125"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="68" name="직사각형 67"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3533775" y="19431000"/>
+              <a:ext cx="533400" cy="666750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="61" name="그룹 60"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4589370" y="32597912"/>
+            <a:ext cx="501586" cy="426946"/>
+            <a:chOff x="3324225" y="19431000"/>
+            <a:chExt cx="923925" cy="771525"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="65" name="타원 64"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3324225" y="19964400"/>
+              <a:ext cx="923925" cy="238125"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="66" name="직사각형 65"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3533775" y="19431000"/>
+              <a:ext cx="533400" cy="666750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="62" name="그룹 61"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4522134" y="32709971"/>
+            <a:ext cx="659566" cy="561417"/>
+            <a:chOff x="3324225" y="19431000"/>
+            <a:chExt cx="923925" cy="771525"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="63" name="타원 62"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3324225" y="19964400"/>
+              <a:ext cx="923925" cy="238125"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="64" name="직사각형 63"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3533775" y="19431000"/>
+              <a:ext cx="533400" cy="666750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3344396</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>383803</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>172898</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="그림 68"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11869271" y="30203775"/>
+          <a:ext cx="8621807" cy="4878248"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>626971</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>382297</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="직사각형 69"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16619446" y="34470976"/>
+          <a:ext cx="441126" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>566458</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>24445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>542466</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>146800</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="71" name="그룹 70"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="15873133" y="31580770"/>
+          <a:ext cx="661808" cy="751005"/>
+          <a:chOff x="4522134" y="32510298"/>
+          <a:chExt cx="659566" cy="761090"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="72" name="그룹 71"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4679017" y="32510298"/>
+            <a:ext cx="341218" cy="290442"/>
+            <a:chOff x="3324225" y="19431000"/>
+            <a:chExt cx="923925" cy="771525"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="79" name="타원 78"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3324225" y="19964400"/>
+              <a:ext cx="923925" cy="238125"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="80" name="직사각형 79"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3533775" y="19431000"/>
+              <a:ext cx="533400" cy="666750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="73" name="그룹 72"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4589370" y="32597912"/>
+            <a:ext cx="501586" cy="426946"/>
+            <a:chOff x="3324225" y="19431000"/>
+            <a:chExt cx="923925" cy="771525"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="77" name="타원 76"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3324225" y="19964400"/>
+              <a:ext cx="923925" cy="238125"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="78" name="직사각형 77"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3533775" y="19431000"/>
+              <a:ext cx="533400" cy="666750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="74" name="그룹 73"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4522134" y="32709971"/>
+            <a:ext cx="659566" cy="561417"/>
+            <a:chOff x="3324225" y="19431000"/>
+            <a:chExt cx="923925" cy="771525"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="75" name="타원 74"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3324225" y="19964400"/>
+              <a:ext cx="923925" cy="238125"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="76" name="직사각형 75"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3533775" y="19431000"/>
+              <a:ext cx="533400" cy="666750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2814008</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>140073</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="오른쪽 화살표 80"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9877425" y="31810698"/>
+          <a:ext cx="1461458" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -5928,28 +7366,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>33617</xdr:colOff>
-      <xdr:row>276</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>470647</xdr:colOff>
-      <xdr:row>287</xdr:row>
-      <xdr:rowOff>78442</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>112620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2814008</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>211231</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="151" name="직사각형 150"/>
+        <xdr:cNvPr id="82" name="오른쪽 화살표 81"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15307235" y="59043794"/>
-          <a:ext cx="1804147" cy="2263589"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
+          <a:off x="9877425" y="7780245"/>
+          <a:ext cx="1461458" cy="727261"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -5980,58 +7418,155 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>437029</xdr:colOff>
-      <xdr:row>276</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>287</xdr:row>
-      <xdr:rowOff>78442</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="152" name="직사각형 151"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3230657</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>231964</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>206627</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="그림 82"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17761323" y="59043794"/>
-          <a:ext cx="1804147" cy="2263589"/>
+          <a:off x="11755532" y="6219825"/>
+          <a:ext cx="8583707" cy="4797677"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>65398</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="84" name="그룹 83"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3295651" y="25544773"/>
+          <a:ext cx="742950" cy="620402"/>
+          <a:chOff x="3324225" y="19431000"/>
+          <a:chExt cx="923925" cy="771525"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="85" name="타원 84"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3324225" y="19964400"/>
+            <a:ext cx="923925" cy="238125"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="86" name="직사각형 85"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3533775" y="19431000"/>
+            <a:ext cx="533400" cy="666750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6514,10 +8049,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M267"/>
+  <dimension ref="B2:M143"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A264" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S267" sqref="S267"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6531,7 +8066,7 @@
   <sheetData>
     <row r="2" spans="2:2" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
@@ -6541,17 +8076,17 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
@@ -6561,288 +8096,184 @@
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" s="8" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="8" t="s">
+      <c r="B22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B25" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+      <c r="M27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="M28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="M29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
+      <c r="M54" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>26</v>
+      </c>
+      <c r="M55" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B29" s="8" t="s">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>29</v>
+      </c>
+      <c r="M81" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>30</v>
+      </c>
+      <c r="M82" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="M31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>46</v>
-      </c>
-      <c r="M32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>47</v>
-      </c>
-      <c r="M33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
+      <c r="M83" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="111" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>36</v>
+      </c>
+      <c r="M111" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="112" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
         <v>30</v>
       </c>
-      <c r="M58" t="s">
+      <c r="M112" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>31</v>
+      </c>
+      <c r="M113" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>32</v>
-      </c>
-      <c r="M59" t="s">
+    <row r="140" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>38</v>
+      </c>
+      <c r="M140" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="141" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>30</v>
+      </c>
+      <c r="M141" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B85" t="s">
+    <row r="142" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
+        <v>31</v>
+      </c>
+      <c r="M142" t="s">
         <v>35</v>
       </c>
-      <c r="M85" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B86" t="s">
-        <v>36</v>
-      </c>
-      <c r="M86" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B87" t="s">
-        <v>37</v>
-      </c>
-      <c r="M87" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B88" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B115" t="s">
-        <v>42</v>
-      </c>
-      <c r="M115" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B116" t="s">
-        <v>36</v>
-      </c>
-      <c r="M116" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="117" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B117" t="s">
-        <v>37</v>
-      </c>
-      <c r="M117" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B118" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="144" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B144" t="s">
-        <v>44</v>
-      </c>
-      <c r="M144" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="145" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B145" t="s">
-        <v>36</v>
-      </c>
-      <c r="M145" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="146" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B146" t="s">
-        <v>37</v>
-      </c>
-      <c r="M146" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="147" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B147" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="174" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B174" t="s">
-        <v>51</v>
-      </c>
-      <c r="M174" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="175" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B175" t="s">
-        <v>52</v>
-      </c>
-      <c r="M175" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="176" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B176" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="204" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B204" t="s">
-        <v>55</v>
-      </c>
-      <c r="M204" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="205" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B205" t="s">
-        <v>52</v>
-      </c>
-      <c r="M205" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="206" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B206" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="236" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B236" t="s">
-        <v>58</v>
-      </c>
-      <c r="M236" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="237" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B237" t="s">
-        <v>52</v>
-      </c>
-      <c r="M237" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="238" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B238" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="266" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B266" t="s">
-        <v>61</v>
-      </c>
-      <c r="M266" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="267" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B267" t="s">
-        <v>62</v>
-      </c>
-      <c r="M267" t="s">
-        <v>63</v>
+    </row>
+    <row r="143" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -6851,4 +8282,240 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M143"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="22.125" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="44" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B25" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="M28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="M29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>24</v>
+      </c>
+      <c r="M54" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>26</v>
+      </c>
+      <c r="M55" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>29</v>
+      </c>
+      <c r="M81" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>30</v>
+      </c>
+      <c r="M82" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>31</v>
+      </c>
+      <c r="M83" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="111" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>36</v>
+      </c>
+      <c r="M111" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="112" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>30</v>
+      </c>
+      <c r="M112" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>31</v>
+      </c>
+      <c r="M113" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="140" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>38</v>
+      </c>
+      <c r="M140" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="141" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>30</v>
+      </c>
+      <c r="M141" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="142" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
+        <v>31</v>
+      </c>
+      <c r="M142" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="143" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Document/시스템 기획서/DreamCatcher_튜토리얼_강동민.xlsx
+++ b/Document/시스템 기획서/DreamCatcher_튜토리얼_강동민.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="9525" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
   <si>
     <t>작성자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -72,10 +72,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 기본 조작법과 진행되는 미션에 대한 교육을 위한 시스템</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 시스템에 대한 이해를 주어 진행에 대한 고민을 할수 있도록 유도</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -92,10 +88,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 튜토리얼은 조작, 스킬, 미션 순으로 진행됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 스킬은 1, 2, 3 버튼으로 스킬 3개를 사용하게 하여 스킬작동</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -116,10 +108,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 미션 중간에 스킬사용 파트에선 사용하기전 시간을 멈춤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 튜토리얼 스테이지 입장</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -213,6 +201,62 @@
   </si>
   <si>
     <t>미션 튜토리얼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 유저에게 미션에 대한 학습을 주기 위한 장치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 게임 플레이에 대한 이해를 주어 진행에 대한 고민을 할수 있도록 유도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 튜토리얼은 조작, 스킬순으로 진행됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 처음 진행하는 미션에 비션 진행하는법에 대한 알림창 출력.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 처음 단 한번만 출력하며 이후엔 출력하지 않음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 알림창 출력후 4초간 알림창을 끌수 없음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 알림창 생성 4초후 아무키나 누를시 알림창 종료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 알림창 생성중엔 4초간 모든버튼 잠금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 알림창은 7초후 자동 종료됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미션 클리어 방식 소개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미션 클리어 시간 소개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 미션 알림창</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강동민</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션과 조작 튜토리얼 분리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -380,13 +424,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>590551</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>206627</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -418,13 +462,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>590551</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>130428</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -456,13 +500,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>3228975</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>182424</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -494,13 +538,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>2814008</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -548,13 +592,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>31552</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -606,13 +650,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>31552</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -664,13 +708,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>212527</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -722,13 +766,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>545902</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -780,13 +824,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -838,13 +882,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>176210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -854,8 +898,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7095566" y="11796710"/>
-          <a:ext cx="607359" cy="1437996"/>
+          <a:off x="7115176" y="11406185"/>
+          <a:ext cx="609600" cy="1414464"/>
           <a:chOff x="9544050" y="11144249"/>
           <a:chExt cx="1219199" cy="2828925"/>
         </a:xfrm>
@@ -1005,13 +1049,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>441127</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1063,13 +1107,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>441127</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1121,13 +1165,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>622102</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1179,13 +1223,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>269677</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1237,13 +1281,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1295,13 +1339,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>523876</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>176210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>447676</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1311,8 +1355,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18531729" y="11796710"/>
-          <a:ext cx="607359" cy="1437996"/>
+          <a:off x="18573751" y="11406185"/>
+          <a:ext cx="609600" cy="1414464"/>
           <a:chOff x="9544050" y="11144249"/>
           <a:chExt cx="1219199" cy="2828925"/>
         </a:xfrm>
@@ -1462,13 +1506,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>201473</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1500,13 +1544,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>422077</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1560,13 +1604,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>93973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1576,8 +1620,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3365688" y="19592208"/>
-          <a:ext cx="740709" cy="630488"/>
+          <a:off x="3371851" y="19077298"/>
+          <a:ext cx="742950" cy="620402"/>
           <a:chOff x="3324225" y="19431000"/>
           <a:chExt cx="923925" cy="771525"/>
         </a:xfrm>
@@ -1673,13 +1717,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>93973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>657226</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1689,8 +1733,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5530664" y="19592208"/>
-          <a:ext cx="740709" cy="630488"/>
+          <a:off x="5543551" y="19077298"/>
+          <a:ext cx="742950" cy="620402"/>
           <a:chOff x="3324225" y="19431000"/>
           <a:chExt cx="923925" cy="771525"/>
         </a:xfrm>
@@ -1786,13 +1830,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>3257550</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>201473</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1824,13 +1868,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>622102</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1884,13 +1928,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>93973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1900,8 +1944,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14590060" y="19592208"/>
-          <a:ext cx="740709" cy="630488"/>
+          <a:off x="14620876" y="19077298"/>
+          <a:ext cx="742950" cy="620402"/>
           <a:chOff x="3324225" y="19431000"/>
           <a:chExt cx="923925" cy="771525"/>
         </a:xfrm>
@@ -1997,13 +2041,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>93973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2013,8 +2057,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16755036" y="19592208"/>
-          <a:ext cx="740709" cy="630488"/>
+          <a:off x="16792576" y="19077298"/>
+          <a:ext cx="742950" cy="620402"/>
           <a:chOff x="3324225" y="19431000"/>
           <a:chExt cx="923925" cy="771525"/>
         </a:xfrm>
@@ -2110,13 +2154,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>2814008</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2164,13 +2208,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>172899</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2202,13 +2246,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>203002</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2262,13 +2306,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>65398</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>657226</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2278,8 +2322,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5530664" y="25950986"/>
-          <a:ext cx="740709" cy="630488"/>
+          <a:off x="5543551" y="25335223"/>
+          <a:ext cx="742950" cy="620402"/>
           <a:chOff x="3324225" y="19431000"/>
           <a:chExt cx="923925" cy="771525"/>
         </a:xfrm>
@@ -2375,13 +2419,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>3295650</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>172899</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2413,13 +2457,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>441127</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2473,13 +2517,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>65398</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2489,8 +2533,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14628160" y="25950986"/>
-          <a:ext cx="740709" cy="630488"/>
+          <a:off x="14658976" y="25335223"/>
+          <a:ext cx="742950" cy="620402"/>
           <a:chOff x="3324225" y="19431000"/>
           <a:chExt cx="923925" cy="771525"/>
         </a:xfrm>
@@ -2586,13 +2630,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>65398</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>209551</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2602,8 +2646,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16793136" y="25950986"/>
-          <a:ext cx="740709" cy="630488"/>
+          <a:off x="16830676" y="25335223"/>
+          <a:ext cx="742950" cy="620402"/>
           <a:chOff x="3324225" y="19431000"/>
           <a:chExt cx="923925" cy="771525"/>
         </a:xfrm>
@@ -2699,13 +2743,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>2814008</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2753,13 +2797,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>113023</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>342899</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2813,13 +2857,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>113023</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2873,13 +2917,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>172898</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2911,13 +2955,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>335617</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>90943</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2971,13 +3015,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>275105</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>24445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>251112</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>146800</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2987,8 +3031,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4522134" y="32084474"/>
-          <a:ext cx="659566" cy="761091"/>
+          <a:off x="4532780" y="31371220"/>
+          <a:ext cx="661807" cy="751005"/>
           <a:chOff x="4522134" y="32510298"/>
           <a:chExt cx="659566" cy="761090"/>
         </a:xfrm>
@@ -3294,13 +3338,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>3344396</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>383803</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>172898</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3332,13 +3376,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>626971</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>382297</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3392,13 +3436,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>566458</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>24445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>542466</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>146800</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3408,8 +3452,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15840076" y="32084474"/>
-          <a:ext cx="659566" cy="761091"/>
+          <a:off x="15873133" y="31371220"/>
+          <a:ext cx="661808" cy="751005"/>
           <a:chOff x="4522134" y="32510298"/>
           <a:chExt cx="659566" cy="761090"/>
         </a:xfrm>
@@ -3715,13 +3759,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>2814008</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>140073</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3769,13 +3813,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>112620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>2814008</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>211231</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3823,13 +3867,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>3230657</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>231964</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>206627</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3861,13 +3905,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>409576</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>65398</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>466726</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3877,8 +3921,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3289488" y="25950986"/>
-          <a:ext cx="740709" cy="630488"/>
+          <a:off x="3295651" y="25335223"/>
+          <a:ext cx="742950" cy="620402"/>
           <a:chOff x="3324225" y="19431000"/>
           <a:chExt cx="923925" cy="771525"/>
         </a:xfrm>
@@ -3978,19 +4022,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>590551</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>206627</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>63752</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="87" name="그림 86"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4003,84 +4047,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="542926" y="6219825"/>
+          <a:off x="438150" y="6076950"/>
           <a:ext cx="8572500" cy="4797677"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>590551</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>130428</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="542926" y="11801475"/>
-          <a:ext cx="8572500" cy="4797678"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>3228975</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>182424</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11753850" y="11772900"/>
-          <a:ext cx="8610600" cy="4878249"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4091,28 +4059,28 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>2814008</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="오른쪽 화살표 4"/>
+        <xdr:cNvPr id="88" name="직사각형 87"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9877425" y="13658850"/>
-          <a:ext cx="1461458" cy="723900"/>
+          <a:off x="704850" y="6248400"/>
+          <a:ext cx="7981950" cy="4352925"/>
         </a:xfrm>
-        <a:prstGeom prst="rightArrow">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -4145,30 +4113,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>31552</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="직사각형 5"/>
+        <xdr:cNvPr id="89" name="직사각형 88"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4533900" y="11868150"/>
-          <a:ext cx="441127" cy="371475"/>
+          <a:off x="3105150" y="6305551"/>
+          <a:ext cx="3000375" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4192,10 +4163,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
-            <a:t>w</a:t>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>현재미션과 </a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4203,30 +4177,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>31552</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="직사각형 6"/>
+        <xdr:cNvPr id="90" name="직사각형 89"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4533900" y="12306300"/>
-          <a:ext cx="441127" cy="371475"/>
+          <a:off x="1000126" y="7286626"/>
+          <a:ext cx="7477124" cy="2333624"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4250,10 +4227,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
-            <a:t>S</a:t>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>미션 에 대한 설명</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4261,30 +4241,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1600201</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>212527</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="직사각형 7"/>
+        <xdr:cNvPr id="91" name="직사각형 90"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4029075" y="12306300"/>
-          <a:ext cx="441127" cy="371475"/>
+          <a:off x="2800351" y="10048875"/>
+          <a:ext cx="4029074" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4308,3265 +4291,16 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
-            <a:t>A</a:t>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>알림창 종료까지 남은 시간</a:t>
           </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>545902</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="직사각형 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5048250" y="12306300"/>
-          <a:ext cx="441127" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
-            <a:t>D</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="직사각형 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5610225" y="12306300"/>
-          <a:ext cx="1190625" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
-            <a:t>Space</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>176210</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="11" name="그룹 10"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="7115176" y="11615735"/>
-          <a:ext cx="609600" cy="1414464"/>
-          <a:chOff x="9544050" y="11144249"/>
-          <a:chExt cx="1219199" cy="2828925"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="원형 11"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9544050" y="11934825"/>
-            <a:ext cx="1114425" cy="1114425"/>
-          </a:xfrm>
-          <a:prstGeom prst="pie">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val 10799999"/>
-              <a:gd name="adj2" fmla="val 16200000"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="원형 12"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="9572624" y="11934825"/>
-            <a:ext cx="1190625" cy="1114425"/>
-          </a:xfrm>
-          <a:prstGeom prst="pie">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val 10799999"/>
-              <a:gd name="adj2" fmla="val 16200000"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="원형 13"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9553575" y="11144249"/>
-            <a:ext cx="1190625" cy="2828925"/>
-          </a:xfrm>
-          <a:prstGeom prst="pie">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val 0"/>
-              <a:gd name="adj2" fmla="val 10772277"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>441127</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="직사각형 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15992475" y="11868150"/>
-          <a:ext cx="441127" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
-            <a:t>w</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>441127</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="직사각형 15"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15992475" y="12306300"/>
-          <a:ext cx="441127" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
-            <a:t>S</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>622102</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="직사각형 16"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15487650" y="12306300"/>
-          <a:ext cx="441127" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
-            <a:t>A</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>269677</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="직사각형 17"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16506825" y="12306300"/>
-          <a:ext cx="441127" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
-            <a:t>D</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="직사각형 18"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17068800" y="12306300"/>
-          <a:ext cx="1190625" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="2000"/>
-            <a:t>Space</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>523876</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>176210</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>447676</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="20" name="그룹 19"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="18573751" y="11615735"/>
-          <a:ext cx="609600" cy="1414464"/>
-          <a:chOff x="9544050" y="11144249"/>
-          <a:chExt cx="1219199" cy="2828925"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="원형 20"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9544050" y="11934825"/>
-            <a:ext cx="1114425" cy="1114425"/>
-          </a:xfrm>
-          <a:prstGeom prst="pie">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val 10799999"/>
-              <a:gd name="adj2" fmla="val 16200000"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent4">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent4"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent4"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="원형 21"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="9572624" y="11934825"/>
-            <a:ext cx="1190625" cy="1114425"/>
-          </a:xfrm>
-          <a:prstGeom prst="pie">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val 10799999"/>
-              <a:gd name="adj2" fmla="val 16200000"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="원형 22"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9553575" y="11144249"/>
-            <a:ext cx="1190625" cy="2828925"/>
-          </a:xfrm>
-          <a:prstGeom prst="pie">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val 0"/>
-              <a:gd name="adj2" fmla="val 10772277"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>201473</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="그림 23"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="533400" y="17868900"/>
-          <a:ext cx="8610600" cy="4878248"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>422077</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="직사각형 24"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3552825" y="22136100"/>
-          <a:ext cx="441127" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="57150">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>93973</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="26" name="그룹 25"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="3371851" y="19286848"/>
-          <a:ext cx="742950" cy="620402"/>
-          <a:chOff x="3324225" y="19431000"/>
-          <a:chExt cx="923925" cy="771525"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="27" name="타원 26"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3324225" y="19964400"/>
-            <a:ext cx="923925" cy="238125"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="28" name="직사각형 27"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3533775" y="19431000"/>
-            <a:ext cx="533400" cy="666750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>93973</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>657226</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="29" name="그룹 28"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5543551" y="19286848"/>
-          <a:ext cx="742950" cy="620402"/>
-          <a:chOff x="3324225" y="19431000"/>
-          <a:chExt cx="923925" cy="771525"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="30" name="타원 29"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3324225" y="19964400"/>
-            <a:ext cx="923925" cy="238125"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="직사각형 30"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3533775" y="19431000"/>
-            <a:ext cx="533400" cy="666750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>3257550</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>201473</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="그림 31"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11782425" y="17868900"/>
-          <a:ext cx="8610600" cy="4878248"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>622102</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="직사각형 32"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14801850" y="22136100"/>
-          <a:ext cx="441127" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="57150">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>93973</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="34" name="그룹 33"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="14620876" y="19286848"/>
-          <a:ext cx="742950" cy="620402"/>
-          <a:chOff x="3324225" y="19431000"/>
-          <a:chExt cx="923925" cy="771525"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="35" name="타원 34"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3324225" y="19964400"/>
-            <a:ext cx="923925" cy="238125"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="36" name="직사각형 35"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3533775" y="19431000"/>
-            <a:ext cx="533400" cy="666750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>93973</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="37" name="그룹 36"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="16792576" y="19286848"/>
-          <a:ext cx="742950" cy="620402"/>
-          <a:chOff x="3324225" y="19431000"/>
-          <a:chExt cx="923925" cy="771525"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="38" name="타원 37"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3324225" y="19964400"/>
-            <a:ext cx="923925" cy="238125"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="39" name="직사각형 38"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3533775" y="19431000"/>
-            <a:ext cx="533400" cy="666750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>2814008</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="오른쪽 화살표 39"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9877425" y="19812000"/>
-          <a:ext cx="1461458" cy="723900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>172899</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="그림 40"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="533400" y="24126825"/>
-          <a:ext cx="8610600" cy="4878249"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>203002</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="직사각형 41"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4019550" y="28394025"/>
-          <a:ext cx="441127" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="57150">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>65398</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>657226</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="43" name="그룹 42"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5543551" y="25544773"/>
-          <a:ext cx="742950" cy="620402"/>
-          <a:chOff x="3324225" y="19431000"/>
-          <a:chExt cx="923925" cy="771525"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="44" name="타원 43"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3324225" y="19964400"/>
-            <a:ext cx="923925" cy="238125"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="45" name="직사각형 44"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3533775" y="19431000"/>
-            <a:ext cx="533400" cy="666750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>3295650</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>172899</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="그림 45"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11820525" y="24126825"/>
-          <a:ext cx="8610600" cy="4878249"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>441127</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="직사각형 46"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15306675" y="28394025"/>
-          <a:ext cx="441127" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="57150">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>65398</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="48" name="그룹 47"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="14658976" y="25544773"/>
-          <a:ext cx="742950" cy="620402"/>
-          <a:chOff x="3324225" y="19431000"/>
-          <a:chExt cx="923925" cy="771525"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="49" name="타원 48"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3324225" y="19964400"/>
-            <a:ext cx="923925" cy="238125"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="50" name="직사각형 49"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3533775" y="19431000"/>
-            <a:ext cx="533400" cy="666750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>65398</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>209551</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="51" name="그룹 50"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="16830676" y="25544773"/>
-          <a:ext cx="742950" cy="620402"/>
-          <a:chOff x="3324225" y="19431000"/>
-          <a:chExt cx="923925" cy="771525"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="52" name="타원 51"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3324225" y="19964400"/>
-            <a:ext cx="923925" cy="238125"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="53" name="직사각형 52"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3533775" y="19431000"/>
-            <a:ext cx="533400" cy="666750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>2814008</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="오른쪽 화살표 53"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9877425" y="26108025"/>
-          <a:ext cx="1461458" cy="723900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>113023</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>342899</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="타원 54"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3781425" y="25801948"/>
-          <a:ext cx="2190749" cy="487052"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>113023</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="타원 55"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15049500" y="25801948"/>
-          <a:ext cx="2190749" cy="487052"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>166</xdr:row>
-      <xdr:rowOff>172898</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="그림 56"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="533400" y="30203775"/>
-          <a:ext cx="8610600" cy="4878248"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>335617</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>90943</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="직사각형 57"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5279092" y="34470976"/>
-          <a:ext cx="441126" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="57150">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>275105</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>24445</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>251112</xdr:colOff>
-      <xdr:row>153</xdr:row>
-      <xdr:rowOff>146800</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="59" name="그룹 58"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4532780" y="31580770"/>
-          <a:ext cx="661807" cy="751005"/>
-          <a:chOff x="4522134" y="32510298"/>
-          <a:chExt cx="659566" cy="761090"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="60" name="그룹 59"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="4679017" y="32510298"/>
-            <a:ext cx="341218" cy="290442"/>
-            <a:chOff x="3324225" y="19431000"/>
-            <a:chExt cx="923925" cy="771525"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="67" name="타원 66"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3324225" y="19964400"/>
-              <a:ext cx="923925" cy="238125"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="68" name="직사각형 67"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3533775" y="19431000"/>
-              <a:ext cx="533400" cy="666750"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="61" name="그룹 60"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="4589370" y="32597912"/>
-            <a:ext cx="501586" cy="426946"/>
-            <a:chOff x="3324225" y="19431000"/>
-            <a:chExt cx="923925" cy="771525"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="65" name="타원 64"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3324225" y="19964400"/>
-              <a:ext cx="923925" cy="238125"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="66" name="직사각형 65"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3533775" y="19431000"/>
-              <a:ext cx="533400" cy="666750"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="62" name="그룹 61"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="4522134" y="32709971"/>
-            <a:ext cx="659566" cy="561417"/>
-            <a:chOff x="3324225" y="19431000"/>
-            <a:chExt cx="923925" cy="771525"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="63" name="타원 62"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3324225" y="19964400"/>
-              <a:ext cx="923925" cy="238125"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="64" name="직사각형 63"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3533775" y="19431000"/>
-              <a:ext cx="533400" cy="666750"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>3344396</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>383803</xdr:colOff>
-      <xdr:row>166</xdr:row>
-      <xdr:rowOff>172898</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="그림 68"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11869271" y="30203775"/>
-          <a:ext cx="8621807" cy="4878248"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>626971</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>382297</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="직사각형 69"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16619446" y="34470976"/>
-          <a:ext cx="441126" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="57150">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>566458</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>24445</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>542466</xdr:colOff>
-      <xdr:row>153</xdr:row>
-      <xdr:rowOff>146800</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="71" name="그룹 70"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="15873133" y="31580770"/>
-          <a:ext cx="661808" cy="751005"/>
-          <a:chOff x="4522134" y="32510298"/>
-          <a:chExt cx="659566" cy="761090"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="72" name="그룹 71"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="4679017" y="32510298"/>
-            <a:ext cx="341218" cy="290442"/>
-            <a:chOff x="3324225" y="19431000"/>
-            <a:chExt cx="923925" cy="771525"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="79" name="타원 78"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3324225" y="19964400"/>
-              <a:ext cx="923925" cy="238125"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="80" name="직사각형 79"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3533775" y="19431000"/>
-              <a:ext cx="533400" cy="666750"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="73" name="그룹 72"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="4589370" y="32597912"/>
-            <a:ext cx="501586" cy="426946"/>
-            <a:chOff x="3324225" y="19431000"/>
-            <a:chExt cx="923925" cy="771525"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="77" name="타원 76"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3324225" y="19964400"/>
-              <a:ext cx="923925" cy="238125"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="78" name="직사각형 77"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3533775" y="19431000"/>
-              <a:ext cx="533400" cy="666750"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="74" name="그룹 73"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="4522134" y="32709971"/>
-            <a:ext cx="659566" cy="561417"/>
-            <a:chOff x="3324225" y="19431000"/>
-            <a:chExt cx="923925" cy="771525"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="75" name="타원 74"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3324225" y="19964400"/>
-              <a:ext cx="923925" cy="238125"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="76" name="직사각형 75"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3533775" y="19431000"/>
-              <a:ext cx="533400" cy="666750"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>2814008</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>140073</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="오른쪽 화살표 80"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9877425" y="31810698"/>
-          <a:ext cx="1461458" cy="723900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>112620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>2814008</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>211231</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="82" name="오른쪽 화살표 81"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9877425" y="7780245"/>
-          <a:ext cx="1461458" cy="727261"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>3230657</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>231964</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>206627</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="83" name="그림 82"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11755532" y="6219825"/>
-          <a:ext cx="8583707" cy="4797677"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>409576</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>65398</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>466726</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="84" name="그룹 83"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="3295651" y="25544773"/>
-          <a:ext cx="742950" cy="620402"/>
-          <a:chOff x="3324225" y="19431000"/>
-          <a:chExt cx="923925" cy="771525"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="85" name="타원 84"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3324225" y="19964400"/>
-            <a:ext cx="923925" cy="238125"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="86" name="직사각형 85"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3533775" y="19431000"/>
-            <a:ext cx="533400" cy="666750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7837,8 +4571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7881,9 +4615,15 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="B6" s="4">
+        <v>43740</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
@@ -8049,10 +4789,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M143"/>
+  <dimension ref="B2:M142"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8066,7 +4806,7 @@
   <sheetData>
     <row r="2" spans="2:2" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
@@ -8081,17 +4821,17 @@
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
@@ -8106,174 +4846,164 @@
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B24" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="8" t="s">
-        <v>25</v>
+      <c r="M26" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="M27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
         <v>41</v>
       </c>
-      <c r="M29" t="s">
-        <v>44</v>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="M53" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M54" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
         <v>26</v>
       </c>
-      <c r="M55" t="s">
-        <v>28</v>
+      <c r="M80" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M82" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>31</v>
-      </c>
-      <c r="M83" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B84" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
         <v>33</v>
+      </c>
+      <c r="M110" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="M111" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
+        <v>28</v>
+      </c>
+      <c r="M112" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
         <v>30</v>
       </c>
-      <c r="M112" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B113" t="s">
-        <v>31</v>
-      </c>
-      <c r="M113" t="s">
+    </row>
+    <row r="139" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B114" t="s">
-        <v>33</v>
+      <c r="M139" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="140" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="M140" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M141" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="142" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
-        <v>31</v>
-      </c>
-      <c r="M142" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="143" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B143" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -8286,10 +5016,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M143"/>
+  <dimension ref="B2:B27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8303,7 +5033,7 @@
   <sheetData>
     <row r="2" spans="2:2" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
@@ -8313,7 +5043,7 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
@@ -8321,196 +5051,64 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>12</v>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
-        <v>7</v>
+      <c r="B10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>23</v>
-      </c>
-      <c r="M27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>40</v>
-      </c>
-      <c r="M28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>41</v>
-      </c>
-      <c r="M29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>24</v>
-      </c>
-      <c r="M54" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>26</v>
-      </c>
-      <c r="M55" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
-        <v>29</v>
-      </c>
-      <c r="M81" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
-        <v>30</v>
-      </c>
-      <c r="M82" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B83" t="s">
-        <v>31</v>
-      </c>
-      <c r="M83" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B84" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="111" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B111" t="s">
-        <v>36</v>
-      </c>
-      <c r="M111" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B112" t="s">
-        <v>30</v>
-      </c>
-      <c r="M112" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B113" t="s">
-        <v>31</v>
-      </c>
-      <c r="M113" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B114" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="140" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B140" t="s">
-        <v>38</v>
-      </c>
-      <c r="M140" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="141" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B141" t="s">
-        <v>30</v>
-      </c>
-      <c r="M141" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="142" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B142" t="s">
-        <v>31</v>
-      </c>
-      <c r="M142" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="143" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B143" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Document/시스템 기획서/DreamCatcher_튜토리얼_강동민.xlsx
+++ b/Document/시스템 기획서/DreamCatcher_튜토리얼_강동민.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="9525" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
-    <sheet name="튜토리얼" sheetId="4" r:id="rId2"/>
+    <sheet name="조작 튜토리얼" sheetId="4" r:id="rId2"/>
+    <sheet name="미션 튜토리얼" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
   <si>
     <t>작성자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -67,18 +68,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>튜토리얼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 유저에게 기본 조작법과 스킬에 대한 학습을 주기 위한 장치</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 기본 조작법과 진행되는 미션에 대한 교육을 위한 시스템</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 시스템에 대한 이해를 주어 진행에 대한 고민을 할수 있도록 유도</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -95,26 +88,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 튜토리얼은 조작, 스킬, 미션 순으로 진행됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 스킬은 1, 2, 3 버튼으로 스킬 3개를 사용하게 하여 스킬작동</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 미션은 섬멸, 구슬받기, 방어 간략화 시킨 미션을 빠르게 진행 설명함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어: 방어대상을 공격하는 2마리 상대 [멥의 끝과 끝에 소환하여 하나는 유저, 하나는 방어대상으로 돌격하게 만듬]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구슬 받기: 2개의 구슬을 받으면 완료</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>3. 예외처리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -123,10 +100,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 몬스터는 2마리 이상 소환되지 않음</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 튜토리얼 중간에 포탈로 이동시 스킵됨.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -135,14 +108,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>섬멸: 몬스터 2마리 상대</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 미션 중간에 스킬사용 파트에선 사용하기전 시간을 멈춤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 튜토리얼 스테이지 입장</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -231,55 +196,67 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>6. 섬멸 튜토리얼 시작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 버튼 장금 해제후 몬스터 2마리 소환</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 왼쪽에 미션 진행판 표시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 미션 완료시 다음 튜토리얼로 진행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7. 방어 튜토리얼 시작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7. 방어 튜토리얼 진행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6. 섬멸 튜토리얼 진행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8. 구슬 받기 튜토리얼 시작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8. 구슬 받기 튜토리얼 진행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 미션 완료시 튜토리얼 종료 미션 선택창 생성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9. 튜토리얼 완료시</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 알림창을 뛰워 곧 미션 선택창이 나온다고 알림</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 미션 선택창 에서 선택하여 게임 진행</t>
+    <t>기본 조작 튜토리얼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션 튜토리얼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 유저에게 미션에 대한 학습을 주기 위한 장치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 게임 플레이에 대한 이해를 주어 진행에 대한 고민을 할수 있도록 유도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 튜토리얼은 조작, 스킬순으로 진행됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 처음 진행하는 미션에 비션 진행하는법에 대한 알림창 출력.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 처음 단 한번만 출력하며 이후엔 출력하지 않음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 알림창 출력후 4초간 알림창을 끌수 없음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 알림창 생성 4초후 아무키나 누를시 알림창 종료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 알림창 생성중엔 4초간 모든버튼 잠금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 알림창은 7초후 자동 종료됨.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미션 클리어 방식 소개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 미션 클리어 시간 소개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 미션 알림창</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강동민</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미션과 조작 튜토리얼 분리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -447,13 +424,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>590551</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>206627</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -485,13 +462,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>590551</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>130428</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -523,13 +500,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>3228975</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>182424</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -561,13 +538,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>2814008</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -615,13 +592,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>31552</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -673,13 +650,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>31552</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -731,13 +708,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>212527</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -789,13 +766,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>545902</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -847,13 +824,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -905,13 +882,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>176210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -921,8 +898,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7095566" y="12648357"/>
-          <a:ext cx="607359" cy="1437996"/>
+          <a:off x="7115176" y="11406185"/>
+          <a:ext cx="609600" cy="1414464"/>
           <a:chOff x="9544050" y="11144249"/>
           <a:chExt cx="1219199" cy="2828925"/>
         </a:xfrm>
@@ -1072,13 +1049,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>441127</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1130,13 +1107,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>441127</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1188,13 +1165,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>622102</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1246,13 +1223,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>269677</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1304,13 +1281,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1362,13 +1339,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>523876</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>176210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>447676</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1378,8 +1355,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18531729" y="12648357"/>
-          <a:ext cx="607359" cy="1437996"/>
+          <a:off x="18573751" y="11406185"/>
+          <a:ext cx="609600" cy="1414464"/>
           <a:chOff x="9544050" y="11144249"/>
           <a:chExt cx="1219199" cy="2828925"/>
         </a:xfrm>
@@ -1529,13 +1506,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>201473</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1567,13 +1544,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>422077</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1627,13 +1604,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>93973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1643,8 +1620,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3365688" y="20443855"/>
-          <a:ext cx="740709" cy="630488"/>
+          <a:off x="3371851" y="19077298"/>
+          <a:ext cx="742950" cy="620402"/>
           <a:chOff x="3324225" y="19431000"/>
           <a:chExt cx="923925" cy="771525"/>
         </a:xfrm>
@@ -1740,13 +1717,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>93973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>657226</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1756,8 +1733,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5530664" y="20443855"/>
-          <a:ext cx="740709" cy="630488"/>
+          <a:off x="5543551" y="19077298"/>
+          <a:ext cx="742950" cy="620402"/>
           <a:chOff x="3324225" y="19431000"/>
           <a:chExt cx="923925" cy="771525"/>
         </a:xfrm>
@@ -1853,13 +1830,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>3257550</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>201473</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1891,13 +1868,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>622102</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1951,13 +1928,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>93973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1967,8 +1944,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14590060" y="20443855"/>
-          <a:ext cx="740709" cy="630488"/>
+          <a:off x="14620876" y="19077298"/>
+          <a:ext cx="742950" cy="620402"/>
           <a:chOff x="3324225" y="19431000"/>
           <a:chExt cx="923925" cy="771525"/>
         </a:xfrm>
@@ -2064,13 +2041,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>93973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2080,8 +2057,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16755036" y="20443855"/>
-          <a:ext cx="740709" cy="630488"/>
+          <a:off x="16792576" y="19077298"/>
+          <a:ext cx="742950" cy="620402"/>
           <a:chOff x="3324225" y="19431000"/>
           <a:chExt cx="923925" cy="771525"/>
         </a:xfrm>
@@ -2177,13 +2154,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>2814008</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2231,14 +2208,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>172898</xdr:rowOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>172899</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2269,13 +2246,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>203002</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2329,13 +2306,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>65398</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>657226</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2345,8 +2322,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5530664" y="26802633"/>
-          <a:ext cx="740709" cy="630488"/>
+          <a:off x="5543551" y="25335223"/>
+          <a:ext cx="742950" cy="620402"/>
           <a:chOff x="3324225" y="19431000"/>
           <a:chExt cx="923925" cy="771525"/>
         </a:xfrm>
@@ -2442,14 +2419,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>3295650</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>172898</xdr:rowOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>172899</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2480,13 +2457,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>441127</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2540,13 +2517,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>65398</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2556,8 +2533,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14628160" y="26802633"/>
-          <a:ext cx="740709" cy="630488"/>
+          <a:off x="14658976" y="25335223"/>
+          <a:ext cx="742950" cy="620402"/>
           <a:chOff x="3324225" y="19431000"/>
           <a:chExt cx="923925" cy="771525"/>
         </a:xfrm>
@@ -2653,13 +2630,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>65398</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>209551</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2669,8 +2646,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16793136" y="26802633"/>
-          <a:ext cx="740709" cy="630488"/>
+          <a:off x="16830676" y="25335223"/>
+          <a:ext cx="742950" cy="620402"/>
           <a:chOff x="3324225" y="19431000"/>
           <a:chExt cx="923925" cy="771525"/>
         </a:xfrm>
@@ -2766,13 +2743,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>2814008</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2820,13 +2797,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>113023</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>342899</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2880,13 +2857,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>113023</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2940,13 +2917,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>172898</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2978,13 +2955,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>335617</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>90943</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3038,13 +3015,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>275105</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>24445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>251112</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>146800</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3054,8 +3031,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4522134" y="32936121"/>
-          <a:ext cx="659566" cy="761091"/>
+          <a:off x="4532780" y="31371220"/>
+          <a:ext cx="661807" cy="751005"/>
           <a:chOff x="4522134" y="32510298"/>
           <a:chExt cx="659566" cy="761090"/>
         </a:xfrm>
@@ -3361,13 +3338,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>3344396</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>383803</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>172898</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3399,13 +3376,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>626971</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>382297</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3459,13 +3436,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>566458</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>24445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>542466</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>146800</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3475,8 +3452,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15840076" y="32936121"/>
-          <a:ext cx="659566" cy="761091"/>
+          <a:off x="15873133" y="31371220"/>
+          <a:ext cx="661808" cy="751005"/>
           <a:chOff x="4522134" y="32510298"/>
           <a:chExt cx="659566" cy="761090"/>
         </a:xfrm>
@@ -3782,13 +3759,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>2814008</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>140073</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3836,13 +3813,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>112620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>2814008</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>211231</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3890,13 +3867,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>3230657</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>231964</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>206627</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3924,862 +3901,17 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>177</xdr:row>
-      <xdr:rowOff>47064</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>619124</xdr:colOff>
-      <xdr:row>200</xdr:row>
-      <xdr:rowOff>105662</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="103" name="그림 102"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="531718" y="37855711"/>
-          <a:ext cx="8592671" cy="4955569"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>3344396</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>159124</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>383803</xdr:colOff>
-      <xdr:row>200</xdr:row>
-      <xdr:rowOff>4810</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="104" name="그림 103"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11849661" y="37754859"/>
-          <a:ext cx="8592671" cy="4955569"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>185</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>2814008</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>16810</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="105" name="오른쪽 화살표 104"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9857815" y="39646412"/>
-          <a:ext cx="1461458" cy="733986"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>183</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>302560</xdr:colOff>
-      <xdr:row>188</xdr:row>
-      <xdr:rowOff>22413</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="106" name="직사각형 105"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18736236" y="39086118"/>
-          <a:ext cx="1624853" cy="1086971"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1800"/>
-            <a:t>미션 진행 판</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>448235</xdr:colOff>
-      <xdr:row>183</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>549088</xdr:colOff>
-      <xdr:row>188</xdr:row>
-      <xdr:rowOff>22413</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="107" name="직사각형 106"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7429500" y="39086118"/>
-          <a:ext cx="1624853" cy="1086971"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1800"/>
-            <a:t>미션 진행 판</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1572747</xdr:colOff>
-      <xdr:row>185</xdr:row>
-      <xdr:rowOff>9369</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>632573</xdr:colOff>
-      <xdr:row>188</xdr:row>
-      <xdr:rowOff>1122</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="53" name="그룹 52"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="2771776" y="39521310"/>
-          <a:ext cx="740709" cy="630488"/>
-          <a:chOff x="3324225" y="19431000"/>
-          <a:chExt cx="923925" cy="771525"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="54" name="타원 53"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3324225" y="19964400"/>
-            <a:ext cx="923925" cy="238125"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="55" name="직사각형 54"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3533775" y="19431000"/>
-            <a:ext cx="533400" cy="666750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>351306</xdr:colOff>
-      <xdr:row>185</xdr:row>
-      <xdr:rowOff>9369</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>408456</xdr:colOff>
-      <xdr:row>188</xdr:row>
-      <xdr:rowOff>1122</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="108" name="그룹 107"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5965453" y="39521310"/>
-          <a:ext cx="740709" cy="630488"/>
-          <a:chOff x="3324225" y="19431000"/>
-          <a:chExt cx="923925" cy="771525"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="109" name="타원 108"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3324225" y="19964400"/>
-            <a:ext cx="923925" cy="238125"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="110" name="직사각형 109"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3533775" y="19431000"/>
-            <a:ext cx="533400" cy="666750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>209</xdr:row>
-      <xdr:rowOff>2240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>619124</xdr:colOff>
-      <xdr:row>232</xdr:row>
-      <xdr:rowOff>60839</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="111" name="그림 110"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="531718" y="44624064"/>
-          <a:ext cx="8592671" cy="4955569"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>217</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>2814008</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>184898</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="112" name="오른쪽 화살표 111"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9857815" y="46414765"/>
-          <a:ext cx="1461458" cy="733986"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>448235</xdr:colOff>
-      <xdr:row>214</xdr:row>
-      <xdr:rowOff>168089</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>549088</xdr:colOff>
-      <xdr:row>219</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="113" name="직사각형 112"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7429500" y="45854471"/>
-          <a:ext cx="1624853" cy="1086971"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1800"/>
-            <a:t>미션 진행 판</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>586629</xdr:colOff>
-      <xdr:row>225</xdr:row>
-      <xdr:rowOff>99016</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1327338</xdr:colOff>
-      <xdr:row>228</xdr:row>
-      <xdr:rowOff>90769</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="114" name="그룹 113"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1785658" y="48127428"/>
-          <a:ext cx="740709" cy="630488"/>
-          <a:chOff x="3324225" y="19431000"/>
-          <a:chExt cx="923925" cy="771525"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="115" name="타원 114"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3324225" y="19964400"/>
-            <a:ext cx="923925" cy="238125"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="116" name="직사각형 115"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3533775" y="19431000"/>
-            <a:ext cx="533400" cy="666750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>149601</xdr:colOff>
-      <xdr:row>215</xdr:row>
-      <xdr:rowOff>118853</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>537883</xdr:colOff>
-      <xdr:row>217</xdr:row>
-      <xdr:rowOff>23533</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="117" name="그룹 116"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5763748" y="46018147"/>
-          <a:ext cx="388282" cy="330504"/>
-          <a:chOff x="3324225" y="19431000"/>
-          <a:chExt cx="923925" cy="771525"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="118" name="타원 117"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3324225" y="19964400"/>
-            <a:ext cx="923925" cy="238125"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="119" name="직사각형 118"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3533775" y="19431000"/>
-            <a:ext cx="533400" cy="666750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>409576</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>65398</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>466726</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4789,8 +3921,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3289488" y="26802633"/>
-          <a:ext cx="740709" cy="630488"/>
+          <a:off x="3295651" y="25335223"/>
+          <a:ext cx="742950" cy="620402"/>
           <a:chOff x="3324225" y="19431000"/>
           <a:chExt cx="923925" cy="771525"/>
         </a:xfrm>
@@ -4882,96 +4014,41 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1456767</xdr:colOff>
-      <xdr:row>218</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>549089</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>60412</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="123" name="타원 122"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2655796" y="46694912"/>
-          <a:ext cx="1456764" cy="329353"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>27453</xdr:colOff>
-      <xdr:row>209</xdr:row>
-      <xdr:rowOff>2240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>417419</xdr:colOff>
-      <xdr:row>232</xdr:row>
-      <xdr:rowOff>60839</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>63752</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="124" name="그림 123"/>
+        <xdr:cNvPr id="87" name="그림 86"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11883277" y="44624064"/>
-          <a:ext cx="8592671" cy="4955569"/>
+          <a:off x="438150" y="6076950"/>
+          <a:ext cx="8572500" cy="4797677"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4982,864 +4059,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>100855</xdr:colOff>
-      <xdr:row>218</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>60412</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="125" name="타원 124"/>
+        <xdr:cNvPr id="88" name="직사각형 87"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14007355" y="46694912"/>
-          <a:ext cx="1456764" cy="329353"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>239</xdr:row>
-      <xdr:rowOff>159122</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>619124</xdr:colOff>
-      <xdr:row>263</xdr:row>
-      <xdr:rowOff>4808</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="126" name="그림 125"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="531718" y="51168298"/>
-          <a:ext cx="8592671" cy="4955569"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>448235</xdr:colOff>
-      <xdr:row>245</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>549088</xdr:colOff>
-      <xdr:row>250</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="127" name="직사각형 126"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7429500" y="52286647"/>
-          <a:ext cx="1624853" cy="1086971"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1800"/>
-            <a:t>미션 진행 판</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1282512</xdr:colOff>
-      <xdr:row>242</xdr:row>
-      <xdr:rowOff>201706</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>374834</xdr:colOff>
-      <xdr:row>253</xdr:row>
-      <xdr:rowOff>208327</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="131" name="그룹 130"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="2481541" y="51849618"/>
-          <a:ext cx="1456764" cy="2348650"/>
-          <a:chOff x="2481541" y="51849618"/>
-          <a:chExt cx="1456764" cy="2348650"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="128" name="타원 127"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2481541" y="53868915"/>
-            <a:ext cx="1456764" cy="329353"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FFC000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="129" name="포인트가 5개인 별 128"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2823883" y="51849618"/>
-            <a:ext cx="773206" cy="773206"/>
-          </a:xfrm>
-          <a:prstGeom prst="star5">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 30896"/>
-              <a:gd name="hf" fmla="val 105146"/>
-              <a:gd name="vf" fmla="val 110557"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent4">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent4"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent4"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>217953</xdr:colOff>
-      <xdr:row>240</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>254404</xdr:colOff>
-      <xdr:row>249</xdr:row>
-      <xdr:rowOff>152298</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="136" name="그룹 135"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5832100" y="51378971"/>
-          <a:ext cx="720010" cy="1911621"/>
-          <a:chOff x="2481541" y="50330570"/>
-          <a:chExt cx="1456764" cy="3867698"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="137" name="타원 136"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2481541" y="53868915"/>
-            <a:ext cx="1456764" cy="329353"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FFC000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="138" name="포인트가 5개인 별 137"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2823884" y="50330570"/>
-            <a:ext cx="773205" cy="773205"/>
-          </a:xfrm>
-          <a:prstGeom prst="star5">
-            <a:avLst>
-              <a:gd name="adj" fmla="val 30896"/>
-              <a:gd name="hf" fmla="val 105146"/>
-              <a:gd name="vf" fmla="val 110557"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent4">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent4"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent4"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>247</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>2814008</xdr:colOff>
-      <xdr:row>250</xdr:row>
-      <xdr:rowOff>128869</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="139" name="오른쪽 화살표 138"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9857815" y="52746089"/>
-          <a:ext cx="1461458" cy="733986"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>61070</xdr:colOff>
-      <xdr:row>239</xdr:row>
-      <xdr:rowOff>159122</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>451036</xdr:colOff>
-      <xdr:row>263</xdr:row>
-      <xdr:rowOff>4808</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="140" name="그림 139"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11916894" y="51168298"/>
-          <a:ext cx="8592671" cy="4955569"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>123264</xdr:colOff>
-      <xdr:row>245</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>250</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="141" name="직사각형 140"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18814676" y="52286647"/>
-          <a:ext cx="1624853" cy="1086971"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1800"/>
-            <a:t>미션 진행 판</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>127188</xdr:colOff>
-      <xdr:row>247</xdr:row>
-      <xdr:rowOff>121428</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>867897</xdr:colOff>
-      <xdr:row>250</xdr:row>
-      <xdr:rowOff>113181</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="142" name="그룹 141"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1326217" y="52833899"/>
-          <a:ext cx="740709" cy="630488"/>
-          <a:chOff x="3324225" y="19431000"/>
-          <a:chExt cx="923925" cy="771525"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="143" name="타원 142"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3324225" y="19964400"/>
-            <a:ext cx="923925" cy="238125"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="144" name="직사각형 143"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3533775" y="19431000"/>
-            <a:ext cx="533400" cy="666750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>270</xdr:row>
-      <xdr:rowOff>13445</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>619124</xdr:colOff>
-      <xdr:row>293</xdr:row>
-      <xdr:rowOff>72043</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="145" name="그림 144"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="531718" y="57622886"/>
-          <a:ext cx="8592671" cy="4955569"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1456765</xdr:colOff>
-      <xdr:row>274</xdr:row>
-      <xdr:rowOff>145678</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>277</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="146" name="직사각형 145"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2655794" y="58606766"/>
-          <a:ext cx="4459941" cy="515470"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1800"/>
-            <a:t>미션 완료를 알리는 알림창</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>161923</xdr:colOff>
-      <xdr:row>270</xdr:row>
-      <xdr:rowOff>13445</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>551889</xdr:colOff>
-      <xdr:row>293</xdr:row>
-      <xdr:rowOff>72043</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="147" name="그림 146"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12017747" y="57622886"/>
-          <a:ext cx="8592671" cy="4955569"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>278</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>2814008</xdr:colOff>
-      <xdr:row>281</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="148" name="오른쪽 화살표 147"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9857815" y="59312736"/>
-          <a:ext cx="1461458" cy="733986"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>78442</xdr:colOff>
-      <xdr:row>273</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>661147</xdr:colOff>
-      <xdr:row>289</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="149" name="직사각형 148"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12617824" y="58371441"/>
-          <a:ext cx="7418294" cy="3395383"/>
+          <a:off x="704850" y="6248400"/>
+          <a:ext cx="7981950" cy="4352925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5874,30 +4113,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>437030</xdr:colOff>
-      <xdr:row>276</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>287</xdr:row>
-      <xdr:rowOff>78442</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="150" name="직사각형 149"/>
+        <xdr:cNvPr id="89" name="직사각형 88"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12976412" y="59043794"/>
-          <a:ext cx="1804147" cy="2263589"/>
+          <a:off x="3105150" y="6305551"/>
+          <a:ext cx="3000375" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -5916,11 +4158,18 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>현재미션과 </a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5928,30 +4177,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>33617</xdr:colOff>
-      <xdr:row>276</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>470647</xdr:colOff>
-      <xdr:row>287</xdr:row>
-      <xdr:rowOff>78442</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="151" name="직사각형 150"/>
+        <xdr:cNvPr id="90" name="직사각형 89"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15307235" y="59043794"/>
-          <a:ext cx="1804147" cy="2263589"/>
+          <a:off x="1000126" y="7286626"/>
+          <a:ext cx="7477124" cy="2333624"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -5970,11 +4222,18 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>미션 에 대한 설명</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5982,30 +4241,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>437029</xdr:colOff>
-      <xdr:row>276</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1600201</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>287</xdr:row>
-      <xdr:rowOff>78442</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="152" name="직사각형 151"/>
+        <xdr:cNvPr id="91" name="직사각형 90"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17761323" y="59043794"/>
-          <a:ext cx="1804147" cy="2263589"/>
+          <a:off x="2800351" y="10048875"/>
+          <a:ext cx="4029074" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -6024,11 +4286,18 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>알림창 종료까지 남은 시간</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6302,8 +4571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6346,9 +4615,15 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="B6" s="4">
+        <v>43740</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
@@ -6514,10 +4789,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M267"/>
+  <dimension ref="B2:M142"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A264" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S267" sqref="S267"/>
+    <sheetView showGridLines="0" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6531,7 +4806,7 @@
   <sheetData>
     <row r="2" spans="2:2" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
@@ -6541,308 +4816,194 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>27</v>
+      <c r="B18" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B24" s="8" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="M27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="M28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="M53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>23</v>
+      </c>
+      <c r="M54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>26</v>
+      </c>
+      <c r="M80" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>27</v>
+      </c>
+      <c r="M81" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B29" s="8" t="s">
+      <c r="M82" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>33</v>
+      </c>
+      <c r="M110" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="111" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>27</v>
+      </c>
+      <c r="M111" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="M31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>46</v>
-      </c>
-      <c r="M32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>47</v>
-      </c>
-      <c r="M33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
+    <row r="112" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>28</v>
+      </c>
+      <c r="M112" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
         <v>30</v>
       </c>
-      <c r="M58" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
+    </row>
+    <row r="139" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
+        <v>35</v>
+      </c>
+      <c r="M139" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="140" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>27</v>
+      </c>
+      <c r="M140" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>28</v>
+      </c>
+      <c r="M141" t="s">
         <v>32</v>
       </c>
-      <c r="M59" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B85" t="s">
-        <v>35</v>
-      </c>
-      <c r="M85" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B86" t="s">
-        <v>36</v>
-      </c>
-      <c r="M86" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B87" t="s">
-        <v>37</v>
-      </c>
-      <c r="M87" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B88" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B115" t="s">
-        <v>42</v>
-      </c>
-      <c r="M115" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B116" t="s">
-        <v>36</v>
-      </c>
-      <c r="M116" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="117" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B117" t="s">
-        <v>37</v>
-      </c>
-      <c r="M117" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B118" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="144" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B144" t="s">
-        <v>44</v>
-      </c>
-      <c r="M144" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="145" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B145" t="s">
-        <v>36</v>
-      </c>
-      <c r="M145" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="146" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B146" t="s">
-        <v>37</v>
-      </c>
-      <c r="M146" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="147" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B147" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="174" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B174" t="s">
-        <v>51</v>
-      </c>
-      <c r="M174" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="175" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B175" t="s">
-        <v>52</v>
-      </c>
-      <c r="M175" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="176" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B176" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="204" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B204" t="s">
-        <v>55</v>
-      </c>
-      <c r="M204" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="205" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B205" t="s">
-        <v>52</v>
-      </c>
-      <c r="M205" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="206" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B206" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="236" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B236" t="s">
-        <v>58</v>
-      </c>
-      <c r="M236" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="237" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B237" t="s">
-        <v>52</v>
-      </c>
-      <c r="M237" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="238" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B238" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="266" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B266" t="s">
-        <v>61</v>
-      </c>
-      <c r="M266" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="267" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B267" t="s">
-        <v>62</v>
-      </c>
-      <c r="M267" t="s">
-        <v>63</v>
+    </row>
+    <row r="142" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -6851,4 +5012,108 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="22.125" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="44" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Document/시스템 기획서/DreamCatcher_튜토리얼_강동민.xlsx
+++ b/Document/시스템 기획서/DreamCatcher_튜토리얼_강동민.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="9525"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="9525" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>작성자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -100,10 +100,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 튜토리얼 중간에 포탈로 이동시 스킵됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 조작키는 W, A, S, D, Space, 일반공격 로 이동과 대쉬 테스트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -140,26 +136,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 몬스터 소환2기 소환</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>3. 스킬1 사용 튜토리얼 진행</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 스킬 사용 튜토리얼시 자동으로 특정 지점으로 이동, 시간정지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스킬 사용시 다시 시간 진행</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 스킬사용 장면을 보여준 후 다음 튜토리얼로 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>4. 스킬2 사용 튜토리얼 시작</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -257,6 +237,26 @@
   </si>
   <si>
     <t>미션과 조작 튜토리얼 분리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬에 대한 설명창 과 설명 표시 스킬 사용에 대한 확인 UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬 사용시 3초후 다음 스킬 튜토리얼로 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 체력이 무한인 몬스터 소환1기 소환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬 사용후 몬스터에게 타격시 튜토리얼 종료를 알림</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 종료 알림을 4초간 알리고 4초후 스테이지 진행</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -898,8 +898,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7115176" y="11406185"/>
-          <a:ext cx="609600" cy="1414464"/>
+          <a:off x="7095566" y="11583798"/>
+          <a:ext cx="607359" cy="1437997"/>
           <a:chOff x="9544050" y="11144249"/>
           <a:chExt cx="1219199" cy="2828925"/>
         </a:xfrm>
@@ -1355,8 +1355,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18573751" y="11406185"/>
-          <a:ext cx="609600" cy="1414464"/>
+          <a:off x="18531729" y="11583798"/>
+          <a:ext cx="607359" cy="1437997"/>
           <a:chOff x="9544050" y="11144249"/>
           <a:chExt cx="1219199" cy="2828925"/>
         </a:xfrm>
@@ -1502,654 +1502,6 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>201473</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="그림 24"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="533400" y="18288000"/>
-          <a:ext cx="8610600" cy="4878248"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>422077</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="직사각형 25"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3552825" y="22555200"/>
-          <a:ext cx="441127" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="57150">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>93973</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="29" name="그룹 28"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="3371851" y="19077298"/>
-          <a:ext cx="742950" cy="620402"/>
-          <a:chOff x="3324225" y="19431000"/>
-          <a:chExt cx="923925" cy="771525"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="28" name="타원 27"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3324225" y="19964400"/>
-            <a:ext cx="923925" cy="238125"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="27" name="직사각형 26"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3533775" y="19431000"/>
-            <a:ext cx="533400" cy="666750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>93973</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>657226</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="30" name="그룹 29"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5543551" y="19077298"/>
-          <a:ext cx="742950" cy="620402"/>
-          <a:chOff x="3324225" y="19431000"/>
-          <a:chExt cx="923925" cy="771525"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="타원 30"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3324225" y="19964400"/>
-            <a:ext cx="923925" cy="238125"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="32" name="직사각형 31"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3533775" y="19431000"/>
-            <a:ext cx="533400" cy="666750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>3257550</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>201473</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="그림 41"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11782425" y="18288000"/>
-          <a:ext cx="8610600" cy="4878248"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>622102</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="직사각형 42"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14801850" y="22555200"/>
-          <a:ext cx="441127" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="57150">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>93973</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="44" name="그룹 43"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="14620876" y="19077298"/>
-          <a:ext cx="742950" cy="620402"/>
-          <a:chOff x="3324225" y="19431000"/>
-          <a:chExt cx="923925" cy="771525"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="45" name="타원 44"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3324225" y="19964400"/>
-            <a:ext cx="923925" cy="238125"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="46" name="직사각형 45"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3533775" y="19431000"/>
-            <a:ext cx="533400" cy="666750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>93973</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="47" name="그룹 46"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="16792576" y="19077298"/>
-          <a:ext cx="742950" cy="620402"/>
-          <a:chOff x="3324225" y="19431000"/>
-          <a:chExt cx="923925" cy="771525"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="48" name="타원 47"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3324225" y="19964400"/>
-            <a:ext cx="923925" cy="238125"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="49" name="직사각형 48"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3533775" y="19431000"/>
-            <a:ext cx="533400" cy="666750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -2204,541 +1556,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>172899</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="그림 50"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="533400" y="24545925"/>
-          <a:ext cx="8610600" cy="4878248"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>203002</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="직사각형 51"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4019550" y="28813125"/>
-          <a:ext cx="441127" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="57150">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>65398</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>657226</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="56" name="그룹 55"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5543551" y="25335223"/>
-          <a:ext cx="742950" cy="620402"/>
-          <a:chOff x="3324225" y="19431000"/>
-          <a:chExt cx="923925" cy="771525"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="57" name="타원 56"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3324225" y="19964400"/>
-            <a:ext cx="923925" cy="238125"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="58" name="직사각형 57"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3533775" y="19431000"/>
-            <a:ext cx="533400" cy="666750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>3295650</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>172899</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="그림 58"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11820525" y="24545925"/>
-          <a:ext cx="8610600" cy="4878248"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>441127</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="직사각형 59"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15306675" y="28813125"/>
-          <a:ext cx="441127" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="57150">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>65398</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="61" name="그룹 60"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="14658976" y="25335223"/>
-          <a:ext cx="742950" cy="620402"/>
-          <a:chOff x="3324225" y="19431000"/>
-          <a:chExt cx="923925" cy="771525"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="62" name="타원 61"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3324225" y="19964400"/>
-            <a:ext cx="923925" cy="238125"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="63" name="직사각형 62"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3533775" y="19431000"/>
-            <a:ext cx="533400" cy="666750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>65398</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>209551</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="64" name="그룹 63"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="16830676" y="25335223"/>
-          <a:ext cx="742950" cy="620402"/>
-          <a:chOff x="3324225" y="19431000"/>
-          <a:chExt cx="923925" cy="771525"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="65" name="타원 64"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3324225" y="19964400"/>
-            <a:ext cx="923925" cy="238125"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="66" name="직사각형 65"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3533775" y="19431000"/>
-            <a:ext cx="533400" cy="666750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -2791,968 +1608,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>113023</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>342899</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="타원 67"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3781425" y="26221048"/>
-          <a:ext cx="2190749" cy="487052"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>113023</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="타원 69"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15049500" y="26221048"/>
-          <a:ext cx="2190749" cy="487052"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FFC000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>172898</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="그림 70"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="531719" y="31109771"/>
-          <a:ext cx="8592671" cy="4955569"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>335617</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>90943</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="직사각형 71"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5266205" y="35444207"/>
-          <a:ext cx="438885" cy="378198"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="57150">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>275105</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>24445</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>251112</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>146800</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="86" name="그룹 85"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4532780" y="31371220"/>
-          <a:ext cx="661807" cy="751005"/>
-          <a:chOff x="4522134" y="32510298"/>
-          <a:chExt cx="659566" cy="761090"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="76" name="그룹 75"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="4679017" y="32510298"/>
-            <a:ext cx="341218" cy="290442"/>
-            <a:chOff x="3324225" y="19431000"/>
-            <a:chExt cx="923925" cy="771525"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="77" name="타원 76"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3324225" y="19964400"/>
-              <a:ext cx="923925" cy="238125"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="78" name="직사각형 77"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3533775" y="19431000"/>
-              <a:ext cx="533400" cy="666750"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="80" name="그룹 79"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="4589370" y="32597912"/>
-            <a:ext cx="501586" cy="426946"/>
-            <a:chOff x="3324225" y="19431000"/>
-            <a:chExt cx="923925" cy="771525"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="81" name="타원 80"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3324225" y="19964400"/>
-              <a:ext cx="923925" cy="238125"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="82" name="직사각형 81"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3533775" y="19431000"/>
-              <a:ext cx="533400" cy="666750"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="83" name="그룹 82"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="4522134" y="32709971"/>
-            <a:ext cx="659566" cy="561417"/>
-            <a:chOff x="3324225" y="19431000"/>
-            <a:chExt cx="923925" cy="771525"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="84" name="타원 83"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3324225" y="19964400"/>
-              <a:ext cx="923925" cy="238125"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="85" name="직사각형 84"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3533775" y="19431000"/>
-              <a:ext cx="533400" cy="666750"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>3344396</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>383803</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>172898</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="87" name="그림 86"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11849661" y="31109771"/>
-          <a:ext cx="8592671" cy="4955569"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>626971</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>382297</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="직사각형 87"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16584147" y="35444207"/>
-          <a:ext cx="438885" cy="378198"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="57150">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>566458</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>24445</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>542466</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>146800</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="89" name="그룹 88"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="15873133" y="31371220"/>
-          <a:ext cx="661808" cy="751005"/>
-          <a:chOff x="4522134" y="32510298"/>
-          <a:chExt cx="659566" cy="761090"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="90" name="그룹 89"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="4679017" y="32510298"/>
-            <a:ext cx="341218" cy="290442"/>
-            <a:chOff x="3324225" y="19431000"/>
-            <a:chExt cx="923925" cy="771525"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="97" name="타원 96"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3324225" y="19964400"/>
-              <a:ext cx="923925" cy="238125"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="98" name="직사각형 97"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3533775" y="19431000"/>
-              <a:ext cx="533400" cy="666750"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="91" name="그룹 90"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="4589370" y="32597912"/>
-            <a:ext cx="501586" cy="426946"/>
-            <a:chOff x="3324225" y="19431000"/>
-            <a:chExt cx="923925" cy="771525"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="95" name="타원 94"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3324225" y="19964400"/>
-              <a:ext cx="923925" cy="238125"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="96" name="직사각형 95"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3533775" y="19431000"/>
-              <a:ext cx="533400" cy="666750"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="92" name="그룹 91"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="4522134" y="32709971"/>
-            <a:ext cx="659566" cy="561417"/>
-            <a:chOff x="3324225" y="19431000"/>
-            <a:chExt cx="923925" cy="771525"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="93" name="타원 92"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3324225" y="19964400"/>
-              <a:ext cx="923925" cy="238125"/>
-            </a:xfrm>
-            <a:prstGeom prst="ellipse">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="94" name="직사각형 93"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3533775" y="19431000"/>
-              <a:ext cx="533400" cy="666750"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -3903,45 +1758,68 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>409576</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>65398</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>466726</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>201473</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="120" name="그룹 119"/>
+        <xdr:cNvPr id="34" name="그룹 33"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3295651" y="25335223"/>
-          <a:ext cx="742950" cy="620402"/>
-          <a:chOff x="3324225" y="19431000"/>
-          <a:chExt cx="923925" cy="771525"/>
+          <a:off x="531719" y="17937816"/>
+          <a:ext cx="8592671" cy="4955569"/>
+          <a:chOff x="531719" y="17937816"/>
+          <a:chExt cx="8592671" cy="4955569"/>
         </a:xfrm>
       </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="25" name="그림 24"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="531719" y="17937816"/>
+            <a:ext cx="8592671" cy="4955569"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="121" name="타원 120"/>
+          <xdr:cNvPr id="26" name="직사각형 25"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3324225" y="19964400"/>
-            <a:ext cx="923925" cy="238125"/>
+            <a:off x="3546662" y="22275613"/>
+            <a:ext cx="438886" cy="374837"/>
           </a:xfrm>
-          <a:prstGeom prst="ellipse">
+          <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
           <a:noFill/>
-          <a:ln w="19050">
+          <a:ln w="57150">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
@@ -3964,23 +1842,23 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="122" name="직사각형 121"/>
+          <xdr:cNvPr id="27" name="직사각형 26"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3533775" y="19431000"/>
-            <a:ext cx="533400" cy="666750"/>
+            <a:off x="4558409" y="18305213"/>
+            <a:ext cx="426679" cy="542873"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4003,11 +1881,1795 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="3600"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="3600"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="30" name="그룹 29"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5080267" y="19365690"/>
+            <a:ext cx="740709" cy="630487"/>
+            <a:chOff x="3324225" y="19431000"/>
+            <a:chExt cx="923925" cy="771525"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="31" name="타원 30"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3324225" y="19964400"/>
+              <a:ext cx="923925" cy="238125"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="32" name="직사각형 31"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3533775" y="19431000"/>
+              <a:ext cx="533400" cy="666750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="직사각형 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="903194" y="19447249"/>
+            <a:ext cx="2214843" cy="2497791"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>스킬 설명</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="102" name="직사각형 101"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1218079" y="19545860"/>
+            <a:ext cx="1590675" cy="397249"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>설명창</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3286125</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>201473</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="33" name="그룹 32"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11791390" y="17937816"/>
+          <a:ext cx="8581464" cy="4955569"/>
+          <a:chOff x="11791390" y="17937816"/>
+          <a:chExt cx="8581464" cy="4955569"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="103" name="그림 102"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11791390" y="17937816"/>
+            <a:ext cx="8581464" cy="4955569"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="104" name="직사각형 103"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14799609" y="22275613"/>
+            <a:ext cx="441127" cy="374837"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="105" name="직사각형 104"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15813598" y="18305213"/>
+            <a:ext cx="426678" cy="542873"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="3600"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="3600"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="106" name="그룹 105"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="16335455" y="19365690"/>
+            <a:ext cx="740709" cy="630487"/>
+            <a:chOff x="3324225" y="19431000"/>
+            <a:chExt cx="923925" cy="771525"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="107" name="타원 106"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3324225" y="19964400"/>
+              <a:ext cx="923925" cy="238125"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="108" name="직사각형 107"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3533775" y="19431000"/>
+              <a:ext cx="533400" cy="666750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="109" name="직사각형 108"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12160624" y="19447249"/>
+            <a:ext cx="2212601" cy="2497791"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>스킬 설명</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="110" name="직사각형 109"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12474949" y="19545860"/>
+            <a:ext cx="1583951" cy="397249"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>설명창</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>83484</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>42022</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>540684</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>100621</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="111" name="그룹 110"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="453278" y="24437228"/>
+          <a:ext cx="8592671" cy="4955569"/>
+          <a:chOff x="531719" y="17937816"/>
+          <a:chExt cx="8592671" cy="4955569"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="112" name="그림 111"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="531719" y="17937816"/>
+            <a:ext cx="8592671" cy="4955569"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="113" name="직사각형 112"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3983692" y="22275613"/>
+            <a:ext cx="438886" cy="374837"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="114" name="직사각형 113"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4558409" y="18305213"/>
+            <a:ext cx="426679" cy="542873"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="3600"/>
+              <a:t>2</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="3600"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="115" name="그룹 114"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5080267" y="19365690"/>
+            <a:ext cx="740709" cy="630487"/>
+            <a:chOff x="3324225" y="19431000"/>
+            <a:chExt cx="923925" cy="771525"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="118" name="타원 117"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3324225" y="19964400"/>
+              <a:ext cx="923925" cy="238125"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="119" name="직사각형 118"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3533775" y="19431000"/>
+              <a:ext cx="533400" cy="666750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="116" name="직사각형 115"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="903194" y="19447249"/>
+            <a:ext cx="2214843" cy="2497791"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>스킬 설명</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="117" name="직사각형 116"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1218079" y="19545860"/>
+            <a:ext cx="1590675" cy="397249"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>설명창</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3344395</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>42022</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>383802</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>100621</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="123" name="그룹 122"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11849660" y="24437228"/>
+          <a:ext cx="8592671" cy="4955569"/>
+          <a:chOff x="531719" y="17937816"/>
+          <a:chExt cx="8592671" cy="4955569"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="124" name="그림 123"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="531719" y="17937816"/>
+            <a:ext cx="8592671" cy="4955569"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="125" name="직사각형 124"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3983692" y="22275613"/>
+            <a:ext cx="438886" cy="374837"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="126" name="직사각형 125"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4558409" y="18305213"/>
+            <a:ext cx="426679" cy="542873"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="3600"/>
+              <a:t>2</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="3600"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="127" name="그룹 126"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5080267" y="19365690"/>
+            <a:ext cx="740709" cy="630487"/>
+            <a:chOff x="3324225" y="19431000"/>
+            <a:chExt cx="923925" cy="771525"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="130" name="타원 129"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3324225" y="19964400"/>
+              <a:ext cx="923925" cy="238125"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="131" name="직사각형 130"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3533775" y="19431000"/>
+              <a:ext cx="533400" cy="666750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="128" name="직사각형 127"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="903194" y="19447249"/>
+            <a:ext cx="2214843" cy="2497791"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>스킬 설명</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="129" name="직사각형 128"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1218079" y="19545860"/>
+            <a:ext cx="1590675" cy="397249"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>설명창</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>83484</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>198905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>540684</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>44591</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="132" name="그룹 131"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="453278" y="30555640"/>
+          <a:ext cx="8592671" cy="4955569"/>
+          <a:chOff x="531719" y="17937816"/>
+          <a:chExt cx="8592671" cy="4955569"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="133" name="그림 132"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="531719" y="17937816"/>
+            <a:ext cx="8592671" cy="4955569"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="134" name="직사각형 133"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5261163" y="22253201"/>
+            <a:ext cx="438886" cy="374837"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="135" name="직사각형 134"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4558409" y="18305213"/>
+            <a:ext cx="426679" cy="542873"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="3600"/>
+              <a:t>3</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="3600"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="136" name="그룹 135"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5080267" y="19365690"/>
+            <a:ext cx="740709" cy="630487"/>
+            <a:chOff x="3324225" y="19431000"/>
+            <a:chExt cx="923925" cy="771525"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="139" name="타원 138"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3324225" y="19964400"/>
+              <a:ext cx="923925" cy="238125"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="140" name="직사각형 139"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3533775" y="19431000"/>
+              <a:ext cx="533400" cy="666750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="137" name="직사각형 136"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="903194" y="19447249"/>
+            <a:ext cx="2214843" cy="2497791"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>스킬 설명</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="138" name="직사각형 137"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1218079" y="19545860"/>
+            <a:ext cx="1590675" cy="397249"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>설명창</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3344395</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>198905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>383802</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>44591</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="141" name="그룹 140"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11849660" y="30555640"/>
+          <a:ext cx="8592671" cy="4955569"/>
+          <a:chOff x="531719" y="17937816"/>
+          <a:chExt cx="8592671" cy="4955569"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="142" name="그림 141"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="531719" y="17937816"/>
+            <a:ext cx="8592671" cy="4955569"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="143" name="직사각형 142"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5261163" y="22275613"/>
+            <a:ext cx="438886" cy="374837"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="144" name="직사각형 143"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4558409" y="18305213"/>
+            <a:ext cx="426679" cy="542873"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="3600"/>
+              <a:t>3</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="3600"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="145" name="그룹 144"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5080267" y="19365690"/>
+            <a:ext cx="740709" cy="630487"/>
+            <a:chOff x="3324225" y="19431000"/>
+            <a:chExt cx="923925" cy="771525"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="148" name="타원 147"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3324225" y="19964400"/>
+              <a:ext cx="923925" cy="238125"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="149" name="직사각형 148"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3533775" y="19431000"/>
+              <a:ext cx="533400" cy="666750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="146" name="직사각형 145"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="903194" y="19447249"/>
+            <a:ext cx="2214843" cy="2497791"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>스킬 설명</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="147" name="직사각형 146"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1218079" y="19545860"/>
+            <a:ext cx="1590675" cy="397249"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+              <a:t>설명창</a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -4571,7 +4233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
@@ -4619,10 +4281,10 @@
         <v>43740</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -4789,10 +4451,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M142"/>
+  <dimension ref="B2:M141"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M141" sqref="M141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4806,7 +4468,7 @@
   <sheetData>
     <row r="2" spans="2:2" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
@@ -4821,7 +4483,7 @@
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
@@ -4846,12 +4508,12 @@
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.3">
@@ -4869,141 +4531,120 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M26" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M27" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M28" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M80" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M81" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>28</v>
-      </c>
-      <c r="M82" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="110" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M110" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M111" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
-        <v>28</v>
-      </c>
-      <c r="M112" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B113" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="139" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M139" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="140" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M140" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="M141" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="142" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B142" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -5033,7 +4674,7 @@
   <sheetData>
     <row r="2" spans="2:2" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
@@ -5043,7 +4684,7 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
@@ -5058,27 +4699,27 @@
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
@@ -5088,27 +4729,27 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Document/시스템 기획서/DreamCatcher_튜토리얼_강동민.xlsx
+++ b/Document/시스템 기획서/DreamCatcher_튜토리얼_강동민.xlsx
@@ -4453,8 +4453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M141"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M141" sqref="M141"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A133" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L142" sqref="L142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4659,7 +4659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>

--- a/Document/시스템 기획서/DreamCatcher_튜토리얼_강동민.xlsx
+++ b/Document/시스템 기획서/DreamCatcher_튜토리얼_강동민.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="9525" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="9525" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
     <sheet name="조작 튜토리얼" sheetId="4" r:id="rId2"/>
-    <sheet name="미션 튜토리얼" sheetId="5" r:id="rId3"/>
+    <sheet name="튜토리얼 진행 순서" sheetId="6" r:id="rId3"/>
+    <sheet name="미션 튜토리얼" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>작성자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -257,6 +258,10 @@
   </si>
   <si>
     <t xml:space="preserve"> - 종료 알림을 4초간 알리고 4초후 스테이지 진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>순서도</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3683,6 +3688,49 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>343439</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="609599"/>
+          <a:ext cx="16145414" cy="1076325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>27</xdr:row>
@@ -4453,8 +4501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M141"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A133" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L142" sqref="L142"/>
+    <sheetView showGridLines="0" topLeftCell="A148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4656,6 +4704,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B27"/>
   <sheetViews>
